--- a/capiq_data/in_process_data/IQ288502.xlsx
+++ b/capiq_data/in_process_data/IQ288502.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781C5025-EBA4-42B5-83D6-D2E8FD709978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83678A5-52F1-470A-A1D8-144358EDCCFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e4241647-4868-48cd-9124-ba077d659690"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"bb04cd9b-4527-4a39-8000-07173834f92c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-532</v>
+        <v>1764.4</v>
       </c>
       <c r="D2">
-        <v>12094</v>
+        <v>11467.3</v>
       </c>
       <c r="E2">
-        <v>7344</v>
+        <v>5262.4</v>
       </c>
       <c r="F2">
-        <v>9758</v>
+        <v>4896.7</v>
       </c>
       <c r="G2">
-        <v>29064</v>
+        <v>13597.9</v>
       </c>
       <c r="H2">
-        <v>105781</v>
+        <v>40154.9</v>
       </c>
       <c r="I2">
-        <v>2308</v>
+        <v>4605.8</v>
       </c>
       <c r="J2">
-        <v>15489</v>
+        <v>3600.7</v>
       </c>
       <c r="K2">
-        <v>2400</v>
+        <v>3319.3</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15641</v>
+        <v>9954.1</v>
       </c>
       <c r="O2">
-        <v>48976</v>
+        <v>20301.5</v>
       </c>
       <c r="P2">
-        <v>17889</v>
+        <v>6920</v>
       </c>
       <c r="Q2">
-        <v>1026</v>
+        <v>1001.7</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>94000</v>
+        <v>69300</v>
       </c>
       <c r="T2">
-        <v>56805</v>
+        <v>19853.400000000001</v>
       </c>
       <c r="U2">
-        <v>10900</v>
+        <v>2536.8000000000002</v>
       </c>
       <c r="V2">
-        <v>3539</v>
+        <v>2360.6999999999998</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-782</v>
       </c>
       <c r="X2">
-        <v>-1295</v>
+        <v>-493.8</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>111</v>
+        <v>-22.7</v>
       </c>
       <c r="AA2">
-        <v>-532</v>
+        <v>1764.4</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1043</v>
+        <v>1657.3</v>
       </c>
       <c r="D3">
-        <v>11580</v>
+        <v>11345.1</v>
       </c>
       <c r="E3">
-        <v>7955</v>
+        <v>5009.8</v>
       </c>
       <c r="F3">
-        <v>7593</v>
+        <v>4298.6000000000004</v>
       </c>
       <c r="G3">
-        <v>31024</v>
+        <v>12851.7</v>
       </c>
       <c r="H3">
-        <v>105865</v>
+        <v>40226.300000000003</v>
       </c>
       <c r="I3">
-        <v>2402</v>
+        <v>4162.6000000000004</v>
       </c>
       <c r="J3">
-        <v>15654</v>
+        <v>3623.1</v>
       </c>
       <c r="K3">
-        <v>2202</v>
+        <v>3778.2</v>
       </c>
       <c r="L3">
-        <v>-197</v>
+        <v>-22.7</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N3">
-        <v>15662</v>
+        <v>10396.799999999999</v>
       </c>
       <c r="O3">
-        <v>49026</v>
+        <v>20447.599999999999</v>
       </c>
       <c r="P3">
-        <v>17856</v>
+        <v>7401.3</v>
       </c>
       <c r="Q3">
-        <v>795</v>
+        <v>-378.3</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>56839</v>
+        <v>19778.7</v>
       </c>
       <c r="U3">
-        <v>11695</v>
+        <v>2158.5</v>
       </c>
       <c r="V3">
-        <v>1721</v>
+        <v>2173.1999999999998</v>
       </c>
       <c r="W3">
-        <v>-1175</v>
+        <v>-784.7</v>
       </c>
       <c r="X3">
-        <v>-1172</v>
+        <v>-1332.1</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>142</v>
+        <v>-494.7</v>
       </c>
       <c r="AA3">
-        <v>1043</v>
+        <v>1657.3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>2024</v>
+        <v>1815.4</v>
       </c>
       <c r="D4">
-        <v>12151</v>
+        <v>11893.1</v>
       </c>
       <c r="E4">
-        <v>8475</v>
+        <v>5249.8</v>
       </c>
       <c r="F4">
-        <v>8094</v>
+        <v>4688.3</v>
       </c>
       <c r="G4">
-        <v>32368</v>
+        <v>13471.1</v>
       </c>
       <c r="H4">
-        <v>106195</v>
+        <v>41748.5</v>
       </c>
       <c r="I4">
-        <v>2143</v>
+        <v>4019.6</v>
       </c>
       <c r="J4">
-        <v>15783</v>
+        <v>3655.9</v>
       </c>
       <c r="K4">
-        <v>2523</v>
+        <v>5764.9</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15763</v>
+        <v>11975.8</v>
       </c>
       <c r="O4">
-        <v>48273</v>
+        <v>22025.5</v>
       </c>
       <c r="P4">
-        <v>18306</v>
+        <v>9420.7999999999993</v>
       </c>
       <c r="Q4">
-        <v>647</v>
+        <v>-50.1</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>57922</v>
+        <v>19723</v>
       </c>
       <c r="U4">
-        <v>12342</v>
+        <v>2108.4</v>
       </c>
       <c r="V4">
-        <v>2852</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="W4">
-        <v>-1176</v>
+        <v>-783</v>
       </c>
       <c r="X4">
-        <v>-1257</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-318</v>
+        <v>-549.70000000000005</v>
       </c>
       <c r="AA4">
-        <v>2024</v>
+        <v>1815.4</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1693</v>
+        <v>1948.2</v>
       </c>
       <c r="D5">
-        <v>12022</v>
+        <v>11919.6</v>
       </c>
       <c r="E5">
-        <v>8136</v>
+        <v>5532.5</v>
       </c>
       <c r="F5">
-        <v>7769</v>
+        <v>4836.8</v>
       </c>
       <c r="G5">
-        <v>34109</v>
+        <v>13922.9</v>
       </c>
       <c r="H5">
-        <v>106534</v>
+        <v>43705.599999999999</v>
       </c>
       <c r="I5">
-        <v>2282</v>
+        <v>4708.3999999999996</v>
       </c>
       <c r="J5">
-        <v>15692</v>
+        <v>4234.6000000000004</v>
       </c>
       <c r="K5">
-        <v>2455</v>
+        <v>5219.8999999999996</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16593</v>
+        <v>12793.3</v>
       </c>
       <c r="O5">
-        <v>48938</v>
+        <v>23408.400000000001</v>
       </c>
       <c r="P5">
-        <v>18147</v>
+        <v>9454.5</v>
       </c>
       <c r="Q5">
-        <v>1911</v>
+        <v>-474.8</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>57596</v>
+        <v>20297.2</v>
       </c>
       <c r="U5">
-        <v>14253</v>
+        <v>1633.6</v>
       </c>
       <c r="V5">
-        <v>4577</v>
+        <v>2814.9</v>
       </c>
       <c r="W5">
-        <v>-1175</v>
+        <v>-778</v>
       </c>
       <c r="X5">
-        <v>-2244</v>
+        <v>-2187.6999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>230</v>
+        <v>-463.4</v>
       </c>
       <c r="AA5">
-        <v>1692</v>
+        <v>1948.2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1512</v>
+        <v>1860.9</v>
       </c>
       <c r="D6">
-        <v>12294</v>
+        <v>12557.9</v>
       </c>
       <c r="E6">
-        <v>8261</v>
+        <v>5215.3999999999996</v>
       </c>
       <c r="F6">
-        <v>8275</v>
+        <v>4915.5</v>
       </c>
       <c r="G6">
-        <v>33181</v>
+        <v>12961.6</v>
       </c>
       <c r="H6">
-        <v>105128</v>
+        <v>44021.2</v>
       </c>
       <c r="I6">
-        <v>2023</v>
+        <v>1895.2</v>
       </c>
       <c r="J6">
-        <v>15525</v>
+        <v>4798.6000000000004</v>
       </c>
       <c r="K6">
-        <v>1990</v>
+        <v>4066.7</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16245</v>
+        <v>11544.2</v>
       </c>
       <c r="O6">
-        <v>48185</v>
+        <v>23133.599999999999</v>
       </c>
       <c r="P6">
-        <v>17515</v>
+        <v>8865.2999999999993</v>
       </c>
       <c r="Q6">
-        <v>-722</v>
+        <v>510.4</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>86000</v>
+        <v>78100</v>
       </c>
       <c r="T6">
-        <v>56943</v>
+        <v>20887.599999999999</v>
       </c>
       <c r="U6">
-        <v>13531</v>
+        <v>2144</v>
       </c>
       <c r="V6">
-        <v>3233</v>
+        <v>2897.9</v>
       </c>
       <c r="W6">
-        <v>-1165</v>
+        <v>-799.3</v>
       </c>
       <c r="X6">
-        <v>-2231</v>
+        <v>-1694.1</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1055</v>
+        <v>110.4</v>
       </c>
       <c r="AA6">
-        <v>1512</v>
+        <v>1860.9</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1738</v>
+        <v>1625</v>
       </c>
       <c r="D7">
-        <v>11731</v>
+        <v>12169.3</v>
       </c>
       <c r="E7">
-        <v>8726</v>
+        <v>5565.4</v>
       </c>
       <c r="F7">
-        <v>7699</v>
+        <v>4188.6000000000004</v>
       </c>
       <c r="G7">
-        <v>34344</v>
+        <v>14024</v>
       </c>
       <c r="H7">
-        <v>105509</v>
+        <v>45474.7</v>
       </c>
       <c r="I7">
-        <v>2358</v>
+        <v>4908.3999999999996</v>
       </c>
       <c r="J7">
-        <v>15228</v>
+        <v>4790.1000000000004</v>
       </c>
       <c r="K7">
-        <v>2930</v>
+        <v>5145.5</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-1421.5</v>
       </c>
       <c r="M7">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="N7">
-        <v>16582</v>
+        <v>12627.4</v>
       </c>
       <c r="O7">
-        <v>48195</v>
+        <v>24177.7</v>
       </c>
       <c r="P7">
-        <v>18158</v>
+        <v>9935.6</v>
       </c>
       <c r="Q7">
-        <v>1125</v>
+        <v>799.1</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>57314</v>
+        <v>21297</v>
       </c>
       <c r="U7">
-        <v>14656</v>
+        <v>2943.1</v>
       </c>
       <c r="V7">
-        <v>2154</v>
+        <v>1970.6</v>
       </c>
       <c r="W7">
-        <v>-1279</v>
+        <v>-795.7</v>
       </c>
       <c r="X7">
-        <v>-725</v>
+        <v>-112.9</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>72</v>
+        <v>-596.6</v>
       </c>
       <c r="AA7">
-        <v>1738</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1793</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>12311</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>8152</v>
+        <v>5786.8</v>
       </c>
       <c r="F8">
-        <v>8282</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>35639</v>
+        <v>13304.9</v>
       </c>
       <c r="H8">
-        <v>105525</v>
+        <v>45960.4</v>
       </c>
       <c r="I8">
-        <v>1674</v>
+        <v>5045</v>
       </c>
       <c r="J8">
-        <v>15057</v>
+        <v>4833.8</v>
       </c>
       <c r="K8">
-        <v>3922</v>
+        <v>4878</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16912</v>
+        <v>12444.4</v>
       </c>
       <c r="O8">
-        <v>47852</v>
+        <v>24218</v>
       </c>
       <c r="P8">
-        <v>18979</v>
+        <v>9711.7999999999993</v>
       </c>
       <c r="Q8">
-        <v>2096</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>57673</v>
+        <v>21742.400000000001</v>
       </c>
       <c r="U8">
-        <v>16752</v>
+        <v>1318.9</v>
       </c>
       <c r="V8">
-        <v>2920</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-1280</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-586</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>11488</v>
+        <v>5426.1</v>
       </c>
       <c r="E9">
-        <v>7952</v>
+        <v>5524.6</v>
       </c>
       <c r="F9">
-        <v>7411</v>
+        <v>4452.8999999999996</v>
       </c>
       <c r="G9">
-        <v>36229</v>
+        <v>14023.6</v>
       </c>
       <c r="H9">
-        <v>106301</v>
+        <v>47337.4</v>
       </c>
       <c r="I9">
-        <v>1804</v>
+        <v>5167.3999999999996</v>
       </c>
       <c r="J9">
-        <v>17571</v>
+        <v>4869.8</v>
       </c>
       <c r="K9">
-        <v>2029</v>
+        <v>4842.7</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15583</v>
+        <v>13073.4</v>
       </c>
       <c r="O9">
-        <v>48089</v>
+        <v>24894.1</v>
       </c>
       <c r="P9">
-        <v>19600</v>
+        <v>9712.5</v>
       </c>
       <c r="Q9">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>58212</v>
+        <v>22443.3</v>
       </c>
       <c r="U9">
-        <v>17360</v>
+        <v>1496.6</v>
       </c>
       <c r="V9">
-        <v>3139</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-1277</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-738</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-1457</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1729</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>907</v>
+        <v>1889.8</v>
       </c>
       <c r="D10">
-        <v>11737</v>
+        <v>6057.7</v>
       </c>
       <c r="E10">
-        <v>7672</v>
+        <v>5423.4</v>
       </c>
       <c r="F10">
-        <v>7617</v>
+        <v>4930.1000000000004</v>
       </c>
       <c r="G10">
-        <v>34857</v>
+        <v>14386.4</v>
       </c>
       <c r="H10">
-        <v>106132</v>
+        <v>47561.2</v>
       </c>
       <c r="I10">
-        <v>1753</v>
+        <v>2413.3000000000002</v>
       </c>
       <c r="J10">
-        <v>16254</v>
+        <v>4879</v>
       </c>
       <c r="K10">
-        <v>2515</v>
+        <v>3650.5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18348</v>
+        <v>12375.2</v>
       </c>
       <c r="O10">
-        <v>50669</v>
+        <v>24432.400000000001</v>
       </c>
       <c r="P10">
-        <v>20569</v>
+        <v>8548.7999999999993</v>
       </c>
       <c r="Q10">
-        <v>-3909</v>
+        <v>746.4</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>83000</v>
+        <v>77300</v>
       </c>
       <c r="T10">
-        <v>55463</v>
+        <v>23128.799999999999</v>
       </c>
       <c r="U10">
-        <v>13451</v>
+        <v>2243</v>
       </c>
       <c r="V10">
-        <v>1809</v>
+        <v>2744.4</v>
       </c>
       <c r="W10">
-        <v>-1280</v>
+        <v>-809.5</v>
       </c>
       <c r="X10">
-        <v>-1218</v>
+        <v>-2206.1999999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-3774</v>
+        <v>800</v>
       </c>
       <c r="AA10">
-        <v>907</v>
+        <v>1889.8</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1593</v>
+        <v>1710.4</v>
       </c>
       <c r="D11">
-        <v>10671</v>
+        <v>5571.4</v>
       </c>
       <c r="E11">
-        <v>7965</v>
+        <v>5617.7</v>
       </c>
       <c r="F11">
-        <v>6755</v>
+        <v>4491.3</v>
       </c>
       <c r="G11">
-        <v>35244</v>
+        <v>15380.9</v>
       </c>
       <c r="H11">
-        <v>106200</v>
+        <v>48953.5</v>
       </c>
       <c r="I11">
-        <v>2084</v>
+        <v>2375.3000000000002</v>
       </c>
       <c r="J11">
-        <v>16089</v>
+        <v>5375.9</v>
       </c>
       <c r="K11">
-        <v>4736</v>
+        <v>4434.8999999999996</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-506</v>
+        <v>-2.4</v>
       </c>
       <c r="N11">
-        <v>18802</v>
+        <v>13550.2</v>
       </c>
       <c r="O11">
-        <v>50594</v>
+        <v>26019.3</v>
       </c>
       <c r="P11">
-        <v>20825</v>
+        <v>9810.7999999999993</v>
       </c>
       <c r="Q11">
-        <v>-427</v>
+        <v>-26.1</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>55606</v>
+        <v>22934.2</v>
       </c>
       <c r="U11">
-        <v>13024</v>
+        <v>2216.9</v>
       </c>
       <c r="V11">
-        <v>2341</v>
+        <v>1807.5</v>
       </c>
       <c r="W11">
-        <v>-1306</v>
+        <v>-808.3</v>
       </c>
       <c r="X11">
-        <v>-1421</v>
+        <v>241.6</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-849</v>
+        <v>-290.2</v>
       </c>
       <c r="AA11">
-        <v>1593</v>
+        <v>1710.4</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>906</v>
+        <v>1867</v>
       </c>
       <c r="D12">
-        <v>11010</v>
+        <v>5525.4</v>
       </c>
       <c r="E12">
-        <v>7779</v>
+        <v>5901.6</v>
       </c>
       <c r="F12">
-        <v>7149</v>
+        <v>4536.8999999999996</v>
       </c>
       <c r="G12">
-        <v>36995</v>
+        <v>16303</v>
       </c>
       <c r="H12">
-        <v>106876</v>
+        <v>50008.1</v>
       </c>
       <c r="I12">
-        <v>2253</v>
+        <v>2169.6</v>
       </c>
       <c r="J12">
-        <v>22559</v>
+        <v>5393.6</v>
       </c>
       <c r="K12">
-        <v>5582</v>
+        <v>4769.6000000000004</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18402</v>
+        <v>13749.4</v>
       </c>
       <c r="O12">
-        <v>56771</v>
+        <v>26359.3</v>
       </c>
       <c r="P12">
-        <v>28141</v>
+        <v>10163.200000000001</v>
       </c>
       <c r="Q12">
-        <v>2066</v>
+        <v>-552.20000000000005</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>50105</v>
+        <v>23648.799999999999</v>
       </c>
       <c r="U12">
-        <v>15090</v>
+        <v>1664.7</v>
       </c>
       <c r="V12">
-        <v>2338</v>
+        <v>1640.1</v>
       </c>
       <c r="W12">
-        <v>-1332</v>
+        <v>-808.1</v>
       </c>
       <c r="X12">
-        <v>970</v>
+        <v>-863.4</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-774</v>
+        <v>-918.2</v>
       </c>
       <c r="AA12">
-        <v>906</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1124</v>
+        <v>1858.3</v>
       </c>
       <c r="D13">
-        <v>11032</v>
+        <v>5762</v>
       </c>
       <c r="E13">
-        <v>7578</v>
+        <v>4561.8</v>
       </c>
       <c r="F13">
-        <v>7026</v>
+        <v>4678.6000000000004</v>
       </c>
       <c r="G13">
-        <v>37765</v>
+        <v>14021.2</v>
       </c>
       <c r="H13">
-        <v>106419</v>
+        <v>42589</v>
       </c>
       <c r="I13">
-        <v>2469</v>
+        <v>728.8</v>
       </c>
       <c r="J13">
-        <v>22669</v>
+        <v>5398.8</v>
       </c>
       <c r="K13">
-        <v>3976</v>
+        <v>4273.6000000000004</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18215</v>
+        <v>11715.6</v>
       </c>
       <c r="O13">
-        <v>56413</v>
+        <v>23206.799999999999</v>
       </c>
       <c r="P13">
-        <v>26645</v>
+        <v>9672.4</v>
       </c>
       <c r="Q13">
-        <v>-1000</v>
+        <v>509.1</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>50006</v>
+        <v>19382.2</v>
       </c>
       <c r="U13">
-        <v>14090</v>
+        <v>2173.8000000000002</v>
       </c>
       <c r="V13">
-        <v>3949</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="W13">
-        <v>-1259</v>
+        <v>-807</v>
       </c>
       <c r="X13">
-        <v>-2915</v>
+        <v>-1877.3</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1631</v>
+        <v>-741.4</v>
       </c>
       <c r="AA13">
-        <v>1124</v>
+        <v>1858.3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>781</v>
+        <v>1395.2</v>
       </c>
       <c r="D14">
-        <v>11320</v>
+        <v>5627.1</v>
       </c>
       <c r="E14">
-        <v>7461</v>
+        <v>4023.6</v>
       </c>
       <c r="F14">
-        <v>7122</v>
+        <v>4399.8999999999996</v>
       </c>
       <c r="G14">
-        <v>35685</v>
+        <v>11527.2</v>
       </c>
       <c r="H14">
-        <v>105645</v>
+        <v>40587.5</v>
       </c>
       <c r="I14">
-        <v>2274</v>
+        <v>735.2</v>
       </c>
       <c r="J14">
-        <v>20564</v>
+        <v>5096</v>
       </c>
       <c r="K14">
-        <v>2421</v>
+        <v>676.3</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17868</v>
+        <v>9569.6</v>
       </c>
       <c r="O14">
-        <v>53319</v>
+        <v>21095.9</v>
       </c>
       <c r="P14">
-        <v>25085</v>
+        <v>6796</v>
       </c>
       <c r="Q14">
-        <v>1531</v>
+        <v>-972.8</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>77300</v>
+        <v>63200</v>
       </c>
       <c r="T14">
-        <v>52326</v>
+        <v>19491.599999999999</v>
       </c>
       <c r="U14">
-        <v>15621</v>
+        <v>1201</v>
       </c>
       <c r="V14">
-        <v>3026</v>
+        <v>4016</v>
       </c>
       <c r="W14">
-        <v>-1260</v>
+        <v>-827</v>
       </c>
       <c r="X14">
-        <v>-2624</v>
+        <v>-4328.8</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1561</v>
+        <v>1186.3</v>
       </c>
       <c r="AA14">
-        <v>781</v>
+        <v>1395.2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1705</v>
+        <v>1618.6</v>
       </c>
       <c r="D15">
-        <v>10264</v>
+        <v>5630.8</v>
       </c>
       <c r="E15">
-        <v>7188</v>
+        <v>4199.6000000000004</v>
       </c>
       <c r="F15">
-        <v>6480</v>
+        <v>4482.6000000000004</v>
       </c>
       <c r="G15">
-        <v>41240</v>
+        <v>12961.3</v>
       </c>
       <c r="H15">
-        <v>108460</v>
+        <v>41665.199999999997</v>
       </c>
       <c r="I15">
-        <v>2434</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="J15">
-        <v>19611</v>
+        <v>4931.7</v>
       </c>
       <c r="K15">
-        <v>8559</v>
+        <v>1945.1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-314.89999999999998</v>
       </c>
       <c r="M15">
-        <v>-3</v>
+        <v>-3.9</v>
       </c>
       <c r="N15">
-        <v>22470</v>
+        <v>10114.200000000001</v>
       </c>
       <c r="O15">
-        <v>55896</v>
+        <v>21455.8</v>
       </c>
       <c r="P15">
-        <v>28170</v>
+        <v>6876.8</v>
       </c>
       <c r="Q15">
-        <v>207</v>
+        <v>561.1</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>52564</v>
+        <v>20209.400000000001</v>
       </c>
       <c r="U15">
-        <v>15828</v>
+        <v>1762.1</v>
       </c>
       <c r="V15">
-        <v>2361</v>
+        <v>1814</v>
       </c>
       <c r="W15">
-        <v>-1290</v>
+        <v>-822.4</v>
       </c>
       <c r="X15">
-        <v>1620</v>
+        <v>-883.2</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-4193</v>
+        <v>-43</v>
       </c>
       <c r="AA15">
-        <v>1705</v>
+        <v>1618.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>2004</v>
+        <v>1768.1</v>
       </c>
       <c r="D16">
-        <v>10934</v>
+        <v>6021.7</v>
       </c>
       <c r="E16">
-        <v>7022</v>
+        <v>3888.6</v>
       </c>
       <c r="F16">
-        <v>6872</v>
+        <v>4858</v>
       </c>
       <c r="G16">
-        <v>33587</v>
+        <v>13288.4</v>
       </c>
       <c r="H16">
-        <v>97860</v>
+        <v>41854.6</v>
       </c>
       <c r="I16">
-        <v>2326</v>
+        <v>469.9</v>
       </c>
       <c r="J16">
-        <v>18604</v>
+        <v>4894.2</v>
       </c>
       <c r="K16">
-        <v>4477</v>
+        <v>1710.8</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17928</v>
+        <v>9681.6</v>
       </c>
       <c r="O16">
-        <v>49344</v>
+        <v>20972.3</v>
       </c>
       <c r="P16">
-        <v>23081</v>
+        <v>6605</v>
       </c>
       <c r="Q16">
-        <v>-6085</v>
+        <v>-162.30000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>48516</v>
+        <v>20882.3</v>
       </c>
       <c r="U16">
-        <v>9743</v>
+        <v>1599.8</v>
       </c>
       <c r="V16">
-        <v>2315</v>
+        <v>2362.3000000000002</v>
       </c>
       <c r="W16">
-        <v>-1339</v>
+        <v>-823.4</v>
       </c>
       <c r="X16">
-        <v>-8369</v>
+        <v>-1277.7</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>334</v>
+        <v>-795.7</v>
       </c>
       <c r="AA16">
-        <v>2004</v>
+        <v>1768.1</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>895</v>
+        <v>1325.6</v>
       </c>
       <c r="D17">
-        <v>10557</v>
+        <v>5538.1</v>
       </c>
       <c r="E17">
-        <v>6515</v>
+        <v>3908</v>
       </c>
       <c r="F17">
-        <v>6833</v>
+        <v>4173.8999999999996</v>
       </c>
       <c r="G17">
-        <v>34723</v>
+        <v>13860.4</v>
       </c>
       <c r="H17">
-        <v>101808</v>
+        <v>42874.400000000001</v>
       </c>
       <c r="I17">
-        <v>2279</v>
+        <v>544.5</v>
       </c>
       <c r="J17">
-        <v>18588</v>
+        <v>4394.2</v>
       </c>
       <c r="K17">
-        <v>9275</v>
+        <v>2192.4</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25927</v>
+        <v>10789.9</v>
       </c>
       <c r="O17">
-        <v>56448</v>
+        <v>21625.7</v>
       </c>
       <c r="P17">
-        <v>27863</v>
+        <v>6586.6</v>
       </c>
       <c r="Q17">
-        <v>1627</v>
+        <v>1067.0999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>45360</v>
+        <v>21248.7</v>
       </c>
       <c r="U17">
-        <v>11370</v>
+        <v>2666.9</v>
       </c>
       <c r="V17">
-        <v>4348</v>
+        <v>2255</v>
       </c>
       <c r="W17">
-        <v>-1282</v>
+        <v>-821.9</v>
       </c>
       <c r="X17">
-        <v>1279</v>
+        <v>-1041.9000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-146</v>
+        <v>286.2</v>
       </c>
       <c r="AA17">
-        <v>895</v>
+        <v>1325.6</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>7316</v>
+        <v>1101.0999999999999</v>
       </c>
       <c r="D18">
-        <v>10482</v>
+        <v>5747.9</v>
       </c>
       <c r="E18">
-        <v>6671</v>
+        <v>3627.7</v>
       </c>
       <c r="F18">
-        <v>6838</v>
+        <v>4557.5</v>
       </c>
       <c r="G18">
-        <v>32605</v>
+        <v>13475.2</v>
       </c>
       <c r="H18">
-        <v>98167</v>
+        <v>42572.800000000003</v>
       </c>
       <c r="I18">
-        <v>2625</v>
+        <v>421.4</v>
       </c>
       <c r="J18">
-        <v>18714</v>
+        <v>4691.5</v>
       </c>
       <c r="K18">
-        <v>1704</v>
+        <v>2181.1999999999998</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18397</v>
+        <v>11744.1</v>
       </c>
       <c r="O18">
-        <v>49376</v>
+        <v>22877.7</v>
       </c>
       <c r="P18">
-        <v>21418</v>
+        <v>6872.7</v>
       </c>
       <c r="Q18">
-        <v>-3929</v>
+        <v>211.9</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>70000</v>
+        <v>62600</v>
       </c>
       <c r="T18">
-        <v>48791</v>
+        <v>19695.099999999999</v>
       </c>
       <c r="U18">
-        <v>7441</v>
+        <v>2878.8</v>
       </c>
       <c r="V18">
-        <v>-1164</v>
+        <v>2367.8000000000002</v>
       </c>
       <c r="W18">
-        <v>-1259</v>
+        <v>-843</v>
       </c>
       <c r="X18">
-        <v>-9643</v>
+        <v>-2388.6</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-5406</v>
+        <v>659.9</v>
       </c>
       <c r="AA18">
-        <v>7316</v>
+        <v>1101.0999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>953</v>
+        <v>1370.1</v>
       </c>
       <c r="D19">
-        <v>9425</v>
+        <v>5362.2</v>
       </c>
       <c r="E19">
-        <v>6670</v>
+        <v>3798.1</v>
       </c>
       <c r="F19">
-        <v>5993</v>
+        <v>4090.8</v>
       </c>
       <c r="G19">
-        <v>32927</v>
+        <v>15760</v>
       </c>
       <c r="H19">
-        <v>108345</v>
+        <v>43117.1</v>
       </c>
       <c r="I19">
-        <v>2091</v>
+        <v>570.70000000000005</v>
       </c>
       <c r="J19">
-        <v>25520</v>
+        <v>5655.6</v>
       </c>
       <c r="K19">
-        <v>4728</v>
+        <v>1614.8</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-49.7</v>
       </c>
       <c r="M19">
-        <v>-2902</v>
+        <v>-515.6</v>
       </c>
       <c r="N19">
-        <v>20442</v>
+        <v>10902.7</v>
       </c>
       <c r="O19">
-        <v>60428</v>
+        <v>23032.1</v>
       </c>
       <c r="P19">
-        <v>30248</v>
+        <v>7270.4</v>
       </c>
       <c r="Q19">
-        <v>539</v>
+        <v>-489.2</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>69265</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>47917</v>
+        <v>20085</v>
       </c>
       <c r="U19">
-        <v>7980</v>
+        <v>2389.6</v>
       </c>
       <c r="V19">
-        <v>2284</v>
+        <v>1339.4</v>
       </c>
       <c r="W19">
-        <v>-1280</v>
+        <v>-841.1</v>
       </c>
       <c r="X19">
-        <v>5155</v>
+        <v>-561.70000000000005</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1248</v>
+        <v>-865.4</v>
       </c>
       <c r="AA19">
-        <v>953</v>
+        <v>1370.1</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>686</v>
+        <v>720.6</v>
       </c>
       <c r="D20">
-        <v>9785</v>
+        <v>5467.5</v>
       </c>
       <c r="E20">
-        <v>6510</v>
+        <v>3506.7</v>
       </c>
       <c r="F20">
-        <v>6180</v>
+        <v>4306.8999999999996</v>
       </c>
       <c r="G20">
-        <v>28319</v>
+        <v>19129.3</v>
       </c>
       <c r="H20">
-        <v>102582</v>
+        <v>43006.3</v>
       </c>
       <c r="I20">
-        <v>2335</v>
+        <v>409.1</v>
       </c>
       <c r="J20">
-        <v>24117</v>
+        <v>5672.4</v>
       </c>
       <c r="K20">
-        <v>2483</v>
+        <v>1494.4</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17508</v>
+        <v>11193.4</v>
       </c>
       <c r="O20">
-        <v>55944</v>
+        <v>23212.799999999999</v>
       </c>
       <c r="P20">
-        <v>26600</v>
+        <v>7166.8</v>
       </c>
       <c r="Q20">
-        <v>-1058</v>
+        <v>-472</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>68805</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>46638</v>
+        <v>19793.5</v>
       </c>
       <c r="U20">
-        <v>6922</v>
+        <v>1917.6</v>
       </c>
       <c r="V20">
-        <v>2697</v>
+        <v>1776.7</v>
       </c>
       <c r="W20">
-        <v>-1302</v>
+        <v>-839.1</v>
       </c>
       <c r="X20">
-        <v>-5597</v>
+        <v>-1161.9000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2759</v>
+        <v>-700.7</v>
       </c>
       <c r="AA20">
-        <v>687</v>
+        <v>720.6</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1826</v>
+        <v>1420.9</v>
       </c>
       <c r="D21">
-        <v>10073</v>
+        <v>5416.2</v>
       </c>
       <c r="E21">
-        <v>6414</v>
+        <v>3647.3</v>
       </c>
       <c r="F21">
-        <v>6382</v>
+        <v>4177.3999999999996</v>
       </c>
       <c r="G21">
-        <v>28567</v>
+        <v>20065.3</v>
       </c>
       <c r="H21">
-        <v>101232</v>
+        <v>43831</v>
       </c>
       <c r="I21">
-        <v>2023</v>
+        <v>475.2</v>
       </c>
       <c r="J21">
-        <v>24124</v>
+        <v>5124.7</v>
       </c>
       <c r="K21">
-        <v>2543</v>
+        <v>2192.5</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17583</v>
+        <v>12162.6</v>
       </c>
       <c r="O21">
-        <v>55553</v>
+        <v>23614.799999999999</v>
       </c>
       <c r="P21">
-        <v>26667</v>
+        <v>7317.2</v>
       </c>
       <c r="Q21">
-        <v>626</v>
+        <v>1000.4</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>68380</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>45679</v>
+        <v>20216.2</v>
       </c>
       <c r="U21">
-        <v>7548</v>
+        <v>2918</v>
       </c>
       <c r="V21">
-        <v>3311</v>
+        <v>2227.6</v>
       </c>
       <c r="W21">
-        <v>-1272</v>
+        <v>-836.3</v>
       </c>
       <c r="X21">
-        <v>-2539</v>
+        <v>-966.8</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>99</v>
+        <v>78.3</v>
       </c>
       <c r="AA21">
-        <v>1826</v>
+        <v>1420.9</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>977</v>
+        <v>1119.7</v>
       </c>
       <c r="D22">
-        <v>10215</v>
+        <v>5765.9</v>
       </c>
       <c r="E22">
-        <v>6518</v>
+        <v>2927.3</v>
       </c>
       <c r="F22">
-        <v>6441</v>
+        <v>4464.3</v>
       </c>
       <c r="G22">
-        <v>29751</v>
+        <v>21049.3</v>
       </c>
       <c r="H22">
-        <v>101677</v>
+        <v>44845.8</v>
       </c>
       <c r="I22">
-        <v>2533</v>
+        <v>471.1</v>
       </c>
       <c r="J22">
-        <v>23852</v>
+        <v>5125.6000000000004</v>
       </c>
       <c r="K22">
-        <v>283</v>
+        <v>2972</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19201</v>
+        <v>13242.4</v>
       </c>
       <c r="O22">
-        <v>56910</v>
+        <v>24460.9</v>
       </c>
       <c r="P22">
-        <v>26436</v>
+        <v>8097.6</v>
       </c>
       <c r="Q22">
-        <v>976</v>
+        <v>6667.3</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>68000</v>
+        <v>61500</v>
       </c>
       <c r="T22">
-        <v>44767</v>
+        <v>20384.900000000001</v>
       </c>
       <c r="U22">
-        <v>8524</v>
+        <v>9585.2999999999993</v>
       </c>
       <c r="V22">
-        <v>4246</v>
+        <v>2264.8000000000002</v>
       </c>
       <c r="W22">
-        <v>-1263</v>
+        <v>-833.3</v>
       </c>
       <c r="X22">
-        <v>-2406</v>
+        <v>-350</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-374</v>
+        <v>5160.8</v>
       </c>
       <c r="AA22">
-        <v>977</v>
+        <v>1119.7</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1125</v>
+        <v>1520</v>
       </c>
       <c r="D23">
-        <v>9312</v>
+        <v>5409.8</v>
       </c>
       <c r="E23">
-        <v>6850</v>
+        <v>3040.7</v>
       </c>
       <c r="F23">
-        <v>6039</v>
+        <v>4272.1000000000004</v>
       </c>
       <c r="G23">
-        <v>28772</v>
+        <v>18011.900000000001</v>
       </c>
       <c r="H23">
-        <v>98755</v>
+        <v>43418</v>
       </c>
       <c r="I23">
-        <v>2241</v>
+        <v>457.4</v>
       </c>
       <c r="J23">
-        <v>23656</v>
+        <v>4762.6000000000004</v>
       </c>
       <c r="K23">
-        <v>2113</v>
+        <v>1952</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-1348.5</v>
       </c>
       <c r="M23">
-        <v>-851</v>
+        <v>-0.8</v>
       </c>
       <c r="N23">
-        <v>17568</v>
+        <v>11299</v>
       </c>
       <c r="O23">
-        <v>54854</v>
+        <v>22136.1</v>
       </c>
       <c r="P23">
-        <v>25770</v>
+        <v>6714.6</v>
       </c>
       <c r="Q23">
-        <v>1192</v>
+        <v>601.9</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>67530</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>43901</v>
+        <v>21281.9</v>
       </c>
       <c r="U23">
-        <v>9716</v>
+        <v>10187.200000000001</v>
       </c>
       <c r="V23">
-        <v>2173</v>
+        <v>1306.8</v>
       </c>
       <c r="W23">
-        <v>-1279</v>
+        <v>-829.8</v>
       </c>
       <c r="X23">
-        <v>-2866</v>
+        <v>-2221.6999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>2253</v>
+        <v>1702.9</v>
       </c>
       <c r="AA23">
-        <v>1125</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1205</v>
+        <v>1499.3</v>
       </c>
       <c r="D24">
-        <v>9844</v>
+        <v>5771.7</v>
       </c>
       <c r="E24">
-        <v>6916</v>
+        <v>3084.7</v>
       </c>
       <c r="F24">
-        <v>6427</v>
+        <v>4494</v>
       </c>
       <c r="G24">
-        <v>27926</v>
+        <v>15890.1</v>
       </c>
       <c r="H24">
-        <v>96475</v>
+        <v>43478.7</v>
       </c>
       <c r="I24">
-        <v>2514</v>
+        <v>363.7</v>
       </c>
       <c r="J24">
-        <v>23642</v>
+        <v>4758.7</v>
       </c>
       <c r="K24">
-        <v>644</v>
+        <v>1703</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14918</v>
+        <v>10502.3</v>
       </c>
       <c r="O24">
-        <v>53029</v>
+        <v>21772.2</v>
       </c>
       <c r="P24">
-        <v>24286</v>
+        <v>6461.7</v>
       </c>
       <c r="Q24">
-        <v>-3108</v>
+        <v>-1973.9</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>43446</v>
+        <v>21706.5</v>
       </c>
       <c r="U24">
-        <v>6608</v>
+        <v>8213.2999999999993</v>
       </c>
       <c r="V24">
-        <v>1600</v>
+        <v>2201.1999999999998</v>
       </c>
       <c r="W24">
-        <v>-1300</v>
+        <v>-833.3</v>
       </c>
       <c r="X24">
-        <v>-3366</v>
+        <v>-1458.8</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1220</v>
+        <v>-2462.6</v>
       </c>
       <c r="AA24">
-        <v>1205</v>
+        <v>1499.3</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>2185</v>
+        <v>940.6</v>
       </c>
       <c r="D25">
-        <v>10536</v>
+        <v>5410.4</v>
       </c>
       <c r="E25">
-        <v>7364</v>
+        <v>3081.4</v>
       </c>
       <c r="F25">
-        <v>7163</v>
+        <v>4065.9</v>
       </c>
       <c r="G25">
-        <v>29440</v>
+        <v>15224.2</v>
       </c>
       <c r="H25">
-        <v>98335</v>
+        <v>43719.1</v>
       </c>
       <c r="I25">
-        <v>2481</v>
+        <v>362.6</v>
       </c>
       <c r="J25">
-        <v>23657</v>
+        <v>4789.5</v>
       </c>
       <c r="K25">
-        <v>1487</v>
+        <v>1195.8</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15555</v>
+        <v>11147.7</v>
       </c>
       <c r="O25">
-        <v>54378</v>
+        <v>21996.799999999999</v>
       </c>
       <c r="P25">
-        <v>25144</v>
+        <v>5985.3</v>
       </c>
       <c r="Q25">
-        <v>1299</v>
+        <v>-1991.2</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>43957</v>
+        <v>21722.3</v>
       </c>
       <c r="U25">
-        <v>7907</v>
+        <v>6222.1</v>
       </c>
       <c r="V25">
-        <v>2971</v>
+        <v>1481.1</v>
       </c>
       <c r="W25">
-        <v>-1274</v>
+        <v>-830.9</v>
       </c>
       <c r="X25">
-        <v>-835</v>
+        <v>-1503.3</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>183</v>
+        <v>-1743.5</v>
       </c>
       <c r="AA25">
-        <v>2184</v>
+        <v>940.6</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-595</v>
+        <v>473.9</v>
       </c>
       <c r="D26">
-        <v>10115</v>
+        <v>6044.1</v>
       </c>
       <c r="E26">
-        <v>7018</v>
+        <v>3314.8</v>
       </c>
       <c r="F26">
-        <v>6815</v>
+        <v>4539.3</v>
       </c>
       <c r="G26">
-        <v>30614</v>
+        <v>15230.2</v>
       </c>
       <c r="H26">
-        <v>95377</v>
+        <v>44569.8</v>
       </c>
       <c r="I26">
-        <v>2807</v>
+        <v>496.6</v>
       </c>
       <c r="J26">
-        <v>24303</v>
+        <v>5551</v>
       </c>
       <c r="K26">
-        <v>268</v>
+        <v>1285.0999999999999</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>17204</v>
+        <v>12722.7</v>
       </c>
       <c r="O26">
-        <v>55069</v>
+        <v>24604</v>
       </c>
       <c r="P26">
-        <v>24871</v>
+        <v>6836.1</v>
       </c>
       <c r="Q26">
-        <v>-1392</v>
+        <v>-307.39999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="T26">
-        <v>40308</v>
+        <v>19965.8</v>
       </c>
       <c r="U26">
-        <v>6515</v>
+        <v>5914.7</v>
       </c>
       <c r="V26">
-        <v>3632</v>
+        <v>1776.1</v>
       </c>
       <c r="W26">
-        <v>-1271</v>
+        <v>-828.6</v>
       </c>
       <c r="X26">
-        <v>-1977</v>
+        <v>-420.4</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-2514</v>
+        <v>-944.3</v>
       </c>
       <c r="AA26">
-        <v>-595</v>
+        <v>473.9</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1551</v>
+        <v>1704.3</v>
       </c>
       <c r="D27">
-        <v>9434</v>
+        <v>5769.4</v>
       </c>
       <c r="E27">
-        <v>7066</v>
+        <v>4016.2</v>
       </c>
       <c r="F27">
-        <v>6524</v>
+        <v>4361.7</v>
       </c>
       <c r="G27">
-        <v>31530</v>
+        <v>11741.7</v>
       </c>
       <c r="H27">
-        <v>96561</v>
+        <v>42992.5</v>
       </c>
       <c r="I27">
-        <v>2484</v>
+        <v>430.3</v>
       </c>
       <c r="J27">
-        <v>23472</v>
+        <v>5545.3</v>
       </c>
       <c r="K27">
-        <v>5037</v>
+        <v>930.7</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-300</v>
+        <v>-854.8</v>
       </c>
       <c r="N27">
-        <v>19823</v>
+        <v>7861.3</v>
       </c>
       <c r="O27">
-        <v>56473</v>
+        <v>22078</v>
       </c>
       <c r="P27">
-        <v>28509</v>
+        <v>6476</v>
       </c>
       <c r="Q27">
-        <v>5193</v>
+        <v>-3812.8</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>67455</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>40088</v>
+        <v>20914.5</v>
       </c>
       <c r="U27">
-        <v>11708</v>
+        <v>2101.9</v>
       </c>
       <c r="V27">
-        <v>286</v>
+        <v>-1328.9</v>
       </c>
       <c r="W27">
-        <v>-1294</v>
+        <v>-826.6</v>
       </c>
       <c r="X27">
-        <v>1461</v>
+        <v>-1216.3</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>3890</v>
+        <v>875.8</v>
       </c>
       <c r="AA27">
-        <v>1551</v>
+        <v>1704.3</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1945</v>
+        <v>1676.4</v>
       </c>
       <c r="D28">
-        <v>9930</v>
+        <v>6111.3</v>
       </c>
       <c r="E28">
-        <v>7439</v>
+        <v>3607.5</v>
       </c>
       <c r="F28">
-        <v>6894</v>
+        <v>4677.7</v>
       </c>
       <c r="G28">
-        <v>28167</v>
+        <v>12435.7</v>
       </c>
       <c r="H28">
-        <v>92804</v>
+        <v>44182.8</v>
       </c>
       <c r="I28">
-        <v>2934</v>
+        <v>454.6</v>
       </c>
       <c r="J28">
-        <v>21725</v>
+        <v>4133.6000000000004</v>
       </c>
       <c r="K28">
-        <v>3181</v>
+        <v>2169.1999999999998</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>18758</v>
+        <v>10281</v>
       </c>
       <c r="O28">
-        <v>53092</v>
+        <v>22302.6</v>
       </c>
       <c r="P28">
-        <v>24910</v>
+        <v>6302.8</v>
       </c>
       <c r="Q28">
-        <v>-3922</v>
+        <v>1367.6</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>39712</v>
+        <v>21880.2</v>
       </c>
       <c r="U28">
-        <v>7786</v>
+        <v>3469.5</v>
       </c>
       <c r="V28">
-        <v>3317</v>
+        <v>2954.4</v>
       </c>
       <c r="W28">
-        <v>-1307</v>
+        <v>-825.2</v>
       </c>
       <c r="X28">
-        <v>-6218</v>
+        <v>-990.2</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-807</v>
+        <v>31.9</v>
       </c>
       <c r="AA28">
-        <v>1946</v>
+        <v>1676.4</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-56</v>
+        <v>1525.6</v>
       </c>
       <c r="D29">
-        <v>10325</v>
+        <v>6074.1</v>
       </c>
       <c r="E29">
-        <v>7671</v>
+        <v>3501.6</v>
       </c>
       <c r="F29">
-        <v>7043</v>
+        <v>4685.2</v>
       </c>
       <c r="G29">
-        <v>27919</v>
+        <v>14163.7</v>
       </c>
       <c r="H29">
-        <v>91676</v>
+        <v>45700.7</v>
       </c>
       <c r="I29">
-        <v>2620</v>
+        <v>392.1</v>
       </c>
       <c r="J29">
-        <v>21861</v>
+        <v>3873.6</v>
       </c>
       <c r="K29">
-        <v>5157</v>
+        <v>1973.1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>19467</v>
+        <v>10506</v>
       </c>
       <c r="O29">
-        <v>53177</v>
+        <v>22541.4</v>
       </c>
       <c r="P29">
-        <v>27021</v>
+        <v>5846.7</v>
       </c>
       <c r="Q29">
-        <v>115</v>
+        <v>1738.8</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>38499</v>
+        <v>23159.3</v>
       </c>
       <c r="U29">
-        <v>7901</v>
+        <v>5208.3</v>
       </c>
       <c r="V29">
-        <v>-1171</v>
+        <v>3025.9</v>
       </c>
       <c r="W29">
-        <v>-1283</v>
+        <v>-826.3</v>
       </c>
       <c r="X29">
-        <v>536</v>
+        <v>-1264.5</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1053</v>
+        <v>216.1</v>
       </c>
       <c r="AA29">
-        <v>-56</v>
+        <v>1525.5</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1046</v>
+        <v>-1630.9</v>
       </c>
       <c r="D30">
-        <v>10433</v>
+        <v>6242.9</v>
       </c>
       <c r="E30">
-        <v>6918</v>
+        <v>2730.2</v>
       </c>
       <c r="F30">
-        <v>7021</v>
+        <v>4815.6000000000004</v>
       </c>
       <c r="G30">
-        <v>24766</v>
+        <v>15045.4</v>
       </c>
       <c r="H30">
-        <v>87872</v>
+        <v>48350.7</v>
       </c>
       <c r="I30">
-        <v>3102</v>
+        <v>624.5</v>
       </c>
       <c r="J30">
-        <v>21405</v>
+        <v>3915.8</v>
       </c>
       <c r="K30">
-        <v>57</v>
+        <v>1823.6</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>18614</v>
+        <v>12258.2</v>
       </c>
       <c r="O30">
-        <v>53303</v>
+        <v>27759.3</v>
       </c>
       <c r="P30">
-        <v>24465</v>
+        <v>5739.4</v>
       </c>
       <c r="Q30">
-        <v>-1805</v>
+        <v>127.8</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>69000</v>
+        <v>59800</v>
       </c>
       <c r="T30">
-        <v>34569</v>
+        <v>20591.400000000001</v>
       </c>
       <c r="U30">
-        <v>6092</v>
+        <v>5336.1</v>
       </c>
       <c r="V30">
-        <v>4019</v>
+        <v>2347.8000000000002</v>
       </c>
       <c r="W30">
-        <v>-1283</v>
+        <v>-829.2</v>
       </c>
       <c r="X30">
-        <v>-5785</v>
+        <v>-1395.1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>789</v>
+        <v>-396.3</v>
       </c>
       <c r="AA30">
-        <v>-1046</v>
+        <v>-1630.9</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>736</v>
+        <v>3302.6</v>
       </c>
       <c r="D31">
-        <v>10037</v>
+        <v>5822.1</v>
       </c>
       <c r="E31">
-        <v>7245</v>
+        <v>3760.8</v>
       </c>
       <c r="F31">
-        <v>6859</v>
+        <v>4598.8999999999996</v>
       </c>
       <c r="G31">
-        <v>24085</v>
+        <v>17047</v>
       </c>
       <c r="H31">
-        <v>86041</v>
+        <v>47041.1</v>
       </c>
       <c r="I31">
-        <v>3162</v>
+        <v>626.9</v>
       </c>
       <c r="J31">
-        <v>21615</v>
+        <v>3965</v>
       </c>
       <c r="K31">
-        <v>2055</v>
+        <v>421.5</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>-22.6</v>
       </c>
       <c r="M31">
-        <v>-1003</v>
+        <v>-1382.6</v>
       </c>
       <c r="N31">
-        <v>16960</v>
+        <v>9797</v>
       </c>
       <c r="O31">
-        <v>52140</v>
+        <v>25082.2</v>
       </c>
       <c r="P31">
-        <v>23671</v>
+        <v>4386.5</v>
       </c>
       <c r="Q31">
-        <v>-1610</v>
+        <v>953.3</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>33901</v>
+        <v>21958.9</v>
       </c>
       <c r="U31">
-        <v>4483</v>
+        <v>6289.4</v>
       </c>
       <c r="V31">
-        <v>1155</v>
+        <v>2528.3000000000002</v>
       </c>
       <c r="W31">
-        <v>-1299</v>
+        <v>-830.8</v>
       </c>
       <c r="X31">
-        <v>-2722</v>
+        <v>-3583.6</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>522</v>
+        <v>2080.3000000000002</v>
       </c>
       <c r="AA31">
-        <v>736</v>
+        <v>3302.6</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1707</v>
+        <v>1768.2</v>
       </c>
       <c r="D32">
-        <v>10465</v>
+        <v>6051.8</v>
       </c>
       <c r="E32">
-        <v>7287</v>
+        <v>3647</v>
       </c>
       <c r="F32">
-        <v>7051</v>
+        <v>4671.3999999999996</v>
       </c>
       <c r="G32">
-        <v>24064</v>
+        <v>17592.900000000001</v>
       </c>
       <c r="H32">
-        <v>85040</v>
+        <v>47457.5</v>
       </c>
       <c r="I32">
-        <v>3024</v>
+        <v>530.9</v>
       </c>
       <c r="J32">
-        <v>20089</v>
+        <v>3932.4</v>
       </c>
       <c r="K32">
-        <v>3379</v>
+        <v>1181.3</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>18128</v>
+        <v>9718.6</v>
       </c>
       <c r="O32">
-        <v>52274</v>
+        <v>24791.4</v>
       </c>
       <c r="P32">
-        <v>23470</v>
+        <v>5113.7</v>
       </c>
       <c r="Q32">
-        <v>826</v>
+        <v>1055.8</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>32766</v>
+        <v>22666.1</v>
       </c>
       <c r="U32">
-        <v>5310</v>
+        <v>7345.2</v>
       </c>
       <c r="V32">
-        <v>3382</v>
+        <v>1380.6</v>
       </c>
       <c r="W32">
-        <v>-1311</v>
+        <v>-821.9</v>
       </c>
       <c r="X32">
-        <v>-2967</v>
+        <v>-288.10000000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1633</v>
+        <v>142.4</v>
       </c>
       <c r="AA32">
-        <v>1707</v>
+        <v>1768.3</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1950</v>
+        <v>1092.8</v>
       </c>
       <c r="D33">
-        <v>10794</v>
+        <v>5943.9</v>
       </c>
       <c r="E33">
-        <v>7374</v>
+        <v>3642.6</v>
       </c>
       <c r="F33">
-        <v>7314</v>
+        <v>4524.8</v>
       </c>
       <c r="G33">
-        <v>26836</v>
+        <v>19418.5</v>
       </c>
       <c r="H33">
-        <v>85130</v>
+        <v>48545.7</v>
       </c>
       <c r="I33">
-        <v>3091</v>
+        <v>474.7</v>
       </c>
       <c r="J33">
-        <v>20074</v>
+        <v>3938.8</v>
       </c>
       <c r="K33">
-        <v>3656</v>
+        <v>2994.2</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>18586</v>
+        <v>14428.3</v>
       </c>
       <c r="O33">
-        <v>52474</v>
+        <v>26535</v>
       </c>
       <c r="P33">
-        <v>23732</v>
+        <v>6933</v>
       </c>
       <c r="Q33">
-        <v>2516</v>
+        <v>-1625.1</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>32656</v>
+        <v>22010.7</v>
       </c>
       <c r="U33">
-        <v>7826</v>
+        <v>5720.1</v>
       </c>
       <c r="V33">
-        <v>2793</v>
+        <v>1652</v>
       </c>
       <c r="W33">
-        <v>-1285</v>
+        <v>-816.9</v>
       </c>
       <c r="X33">
-        <v>-1905</v>
+        <v>104.6</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>2189</v>
+        <v>-1021.4</v>
       </c>
       <c r="AA33">
-        <v>1950</v>
+        <v>1092.7</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1827</v>
+        <v>1644.8</v>
       </c>
       <c r="D34">
-        <v>10998</v>
+        <v>6032.4</v>
       </c>
       <c r="E34">
-        <v>7226</v>
+        <v>2907.7</v>
       </c>
       <c r="F34">
-        <v>7719</v>
+        <v>4595.8</v>
       </c>
       <c r="G34">
-        <v>25875</v>
+        <v>19112.599999999999</v>
       </c>
       <c r="H34">
-        <v>82637</v>
+        <v>47195.7</v>
       </c>
       <c r="I34">
-        <v>4098</v>
+        <v>617.6</v>
       </c>
       <c r="J34">
-        <v>19887</v>
+        <v>3943.3</v>
       </c>
       <c r="K34">
-        <v>5308</v>
+        <v>2297.1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>22206</v>
+        <v>14318.7</v>
       </c>
       <c r="O34">
-        <v>55755</v>
+        <v>26028.6</v>
       </c>
       <c r="P34">
-        <v>25195</v>
+        <v>6240.4</v>
       </c>
       <c r="Q34">
-        <v>139</v>
+        <v>-1351.8</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>69000</v>
+        <v>55200</v>
       </c>
       <c r="T34">
-        <v>26882</v>
+        <v>21167.1</v>
       </c>
       <c r="U34">
-        <v>7965</v>
+        <v>4368.3</v>
       </c>
       <c r="V34">
-        <v>3592</v>
+        <v>1010.8</v>
       </c>
       <c r="W34">
-        <v>-1277</v>
+        <v>-808.9</v>
       </c>
       <c r="X34">
-        <v>-5566</v>
+        <v>-1755.4</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>2914</v>
+        <v>-203.5</v>
       </c>
       <c r="AA34">
-        <v>1827</v>
+        <v>1644.8</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>2915</v>
+        <v>1425</v>
       </c>
       <c r="D35">
-        <v>10816</v>
+        <v>5385.2</v>
       </c>
       <c r="E35">
-        <v>7796</v>
+        <v>2798.8</v>
       </c>
       <c r="F35">
-        <v>7798</v>
+        <v>4073.6</v>
       </c>
       <c r="G35">
-        <v>25351</v>
+        <v>26184.6</v>
       </c>
       <c r="H35">
-        <v>82354</v>
+        <v>46543.1</v>
       </c>
       <c r="I35">
-        <v>4159</v>
+        <v>622.5</v>
       </c>
       <c r="J35">
-        <v>22757</v>
+        <v>3939.1</v>
       </c>
       <c r="K35">
-        <v>3175</v>
+        <v>2798.9</v>
       </c>
       <c r="L35">
-        <v>-4135</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="N35">
-        <v>18543</v>
+        <v>13415.9</v>
       </c>
       <c r="O35">
-        <v>54684</v>
+        <v>24541.599999999999</v>
       </c>
       <c r="P35">
-        <v>26969</v>
+        <v>6738</v>
       </c>
       <c r="Q35">
-        <v>110</v>
+        <v>1648.8</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>27670</v>
+        <v>22001.5</v>
       </c>
       <c r="U35">
-        <v>8076</v>
+        <v>6017.1</v>
       </c>
       <c r="V35">
-        <v>1336</v>
+        <v>712.6</v>
       </c>
       <c r="W35">
-        <v>-1428</v>
+        <v>-803.5</v>
       </c>
       <c r="X35">
-        <v>-1614</v>
+        <v>-391.9</v>
       </c>
       <c r="Y35">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>925</v>
+        <v>1074.0999999999999</v>
       </c>
       <c r="AA35">
-        <v>2915</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>2670</v>
+        <v>1556.3</v>
       </c>
       <c r="D36">
-        <v>11760</v>
+        <v>5899.9</v>
       </c>
       <c r="E36">
-        <v>8208</v>
+        <v>3033.5</v>
       </c>
       <c r="F36">
-        <v>8493</v>
+        <v>4593.1000000000004</v>
       </c>
       <c r="G36">
-        <v>24298</v>
+        <v>29233.9</v>
       </c>
       <c r="H36">
-        <v>83965</v>
+        <v>49407.1</v>
       </c>
       <c r="I36">
-        <v>4456</v>
+        <v>526.5</v>
       </c>
       <c r="J36">
-        <v>22773</v>
+        <v>8181.1</v>
       </c>
       <c r="K36">
-        <v>3816</v>
+        <v>2501.8000000000002</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>20085</v>
+        <v>11507.1</v>
       </c>
       <c r="O36">
-        <v>56228</v>
+        <v>26670.3</v>
       </c>
       <c r="P36">
-        <v>27588</v>
+        <v>10682.9</v>
       </c>
       <c r="Q36">
-        <v>-1417</v>
+        <v>6440.5</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>27737</v>
+        <v>22736.799999999999</v>
       </c>
       <c r="U36">
-        <v>6659</v>
+        <v>12457.6</v>
       </c>
       <c r="V36">
-        <v>3084</v>
+        <v>749</v>
       </c>
       <c r="W36">
-        <v>-1468</v>
+        <v>-803.4</v>
       </c>
       <c r="X36">
-        <v>-2084</v>
+        <v>2975.4</v>
       </c>
       <c r="Y36">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>2200</v>
+        <v>2110.4</v>
       </c>
       <c r="AA36">
-        <v>2670</v>
+        <v>1556.3</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1902</v>
+        <v>3424.3</v>
       </c>
       <c r="D37">
-        <v>12397</v>
+        <v>6049.7</v>
       </c>
       <c r="E37">
-        <v>8714</v>
+        <v>3232.9</v>
       </c>
       <c r="F37">
-        <v>9081</v>
+        <v>4646.2</v>
       </c>
       <c r="G37">
-        <v>26142</v>
+        <v>29668.799999999999</v>
       </c>
       <c r="H37">
-        <v>83331</v>
+        <v>48739.4</v>
       </c>
       <c r="I37">
-        <v>4468</v>
+        <v>568.4</v>
       </c>
       <c r="J37">
-        <v>22677</v>
+        <v>8204.7000000000007</v>
       </c>
       <c r="K37">
-        <v>3411</v>
+        <v>866.8</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>20684</v>
+        <v>8025.7</v>
       </c>
       <c r="O37">
-        <v>56406</v>
+        <v>23390.1</v>
       </c>
       <c r="P37">
-        <v>27111</v>
+        <v>9071.5</v>
       </c>
       <c r="Q37">
-        <v>1211</v>
+        <v>9359.2999999999993</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>26925</v>
+        <v>25349.3</v>
       </c>
       <c r="U37">
-        <v>7869</v>
+        <v>21816.9</v>
       </c>
       <c r="V37">
-        <v>4226</v>
+        <v>-312.10000000000002</v>
       </c>
       <c r="W37">
-        <v>-1394</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-3152</v>
+        <v>-2372.4</v>
       </c>
       <c r="Y37">
-        <v>779</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>1954</v>
+        <v>8409.5</v>
       </c>
       <c r="AA37">
-        <v>1901</v>
+        <v>3424.3</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>2356</v>
+        <v>6493.4</v>
       </c>
       <c r="D38">
-        <v>11868</v>
+        <v>10093.200000000001</v>
       </c>
       <c r="E38">
-        <v>7105</v>
+        <v>6603</v>
       </c>
       <c r="F38">
-        <v>8301</v>
+        <v>6711.1</v>
       </c>
       <c r="G38">
-        <v>27483</v>
+        <v>28432</v>
       </c>
       <c r="H38">
-        <v>84397</v>
+        <v>112314</v>
       </c>
       <c r="I38">
-        <v>5015</v>
+        <v>2244</v>
       </c>
       <c r="J38">
-        <v>22736</v>
+        <v>16095</v>
       </c>
       <c r="K38">
-        <v>1710</v>
+        <v>1379</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>22220</v>
+        <v>15641</v>
       </c>
       <c r="O38">
-        <v>58396</v>
+        <v>50829</v>
       </c>
       <c r="P38">
-        <v>27351</v>
+        <v>17474</v>
       </c>
       <c r="Q38">
-        <v>2063</v>
+        <v>-12505.6</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>71000</v>
+        <v>100000</v>
       </c>
       <c r="T38">
-        <v>26001</v>
+        <v>61485</v>
       </c>
       <c r="U38">
-        <v>9676</v>
+        <v>9311</v>
       </c>
       <c r="V38">
-        <v>4794</v>
+        <v>2242.5</v>
       </c>
       <c r="W38">
-        <v>-1405</v>
+        <v>-1068.2</v>
       </c>
       <c r="X38">
-        <v>-2011</v>
+        <v>-1849.1</v>
       </c>
       <c r="Y38">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="AA38">
-        <v>2356</v>
+        <v>6493.4</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>3219</v>
+        <v>299</v>
       </c>
       <c r="D39">
-        <v>12057</v>
+        <v>11422</v>
       </c>
       <c r="E39">
-        <v>8514</v>
+        <v>7497.7</v>
       </c>
       <c r="F39">
-        <v>8813</v>
+        <v>7463</v>
       </c>
       <c r="G39">
-        <v>26174</v>
+        <v>28244.9</v>
       </c>
       <c r="H39">
-        <v>84913</v>
+        <v>111593.8</v>
       </c>
       <c r="I39">
-        <v>4323</v>
+        <v>2074.9</v>
       </c>
       <c r="J39">
-        <v>21637</v>
+        <v>15281.1</v>
       </c>
       <c r="K39">
-        <v>6361</v>
+        <v>3822.4</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1951</v>
+        <v>-622</v>
       </c>
       <c r="N39">
-        <v>23483</v>
+        <v>16455.3</v>
       </c>
       <c r="O39">
-        <v>58613</v>
+        <v>51250.6</v>
       </c>
       <c r="P39">
-        <v>27998</v>
+        <v>19103.5</v>
       </c>
       <c r="Q39">
-        <v>-2474</v>
+        <v>-1075</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>26300</v>
+        <v>60343.199999999997</v>
       </c>
       <c r="U39">
-        <v>7425</v>
+        <v>8236</v>
       </c>
       <c r="V39">
-        <v>707</v>
+        <v>1366</v>
       </c>
       <c r="W39">
-        <v>-1551</v>
+        <v>-1189</v>
       </c>
       <c r="X39">
-        <v>-1490</v>
+        <v>942</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>1767</v>
+        <v>-2660</v>
       </c>
       <c r="AA39">
-        <v>3219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>3002</v>
+        <v>752</v>
       </c>
       <c r="D40">
-        <v>10872</v>
+        <v>11346</v>
       </c>
       <c r="E40">
-        <v>7980</v>
+        <v>6276.1</v>
       </c>
       <c r="F40">
-        <v>7738</v>
+        <v>7582</v>
       </c>
       <c r="G40">
-        <v>29343</v>
+        <v>26253.599999999999</v>
       </c>
       <c r="H40">
-        <v>90615</v>
+        <v>106170.5</v>
       </c>
       <c r="I40">
-        <v>4097</v>
+        <v>2171.5</v>
       </c>
       <c r="J40">
-        <v>26156</v>
+        <v>13835.3</v>
       </c>
       <c r="K40">
-        <v>4718</v>
+        <v>4147.3</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>22178</v>
+        <v>15420.6</v>
       </c>
       <c r="O40">
-        <v>62871</v>
+        <v>48504.800000000003</v>
       </c>
       <c r="P40">
-        <v>30874</v>
+        <v>17982.599999999999</v>
       </c>
       <c r="Q40">
-        <v>3687</v>
+        <v>430</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>27744</v>
+        <v>57665.7</v>
       </c>
       <c r="U40">
-        <v>11103</v>
+        <v>8665.6</v>
       </c>
       <c r="V40">
-        <v>3367</v>
+        <v>3325</v>
       </c>
       <c r="W40">
-        <v>-1577</v>
+        <v>-1189</v>
       </c>
       <c r="X40">
-        <v>1137</v>
+        <v>-3463</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="AA40">
-        <v>3002</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>2940</v>
+        <v>342</v>
       </c>
       <c r="D41">
-        <v>12551</v>
+        <v>11125</v>
       </c>
       <c r="E41">
-        <v>8859</v>
+        <v>7297.5</v>
       </c>
       <c r="F41">
-        <v>9108</v>
+        <v>6978</v>
       </c>
       <c r="G41">
-        <v>26577</v>
+        <v>27756</v>
       </c>
       <c r="H41">
-        <v>89800</v>
+        <v>107840.1</v>
       </c>
       <c r="I41">
-        <v>4378</v>
+        <v>2242.4</v>
       </c>
       <c r="J41">
-        <v>26321</v>
+        <v>14031.9</v>
       </c>
       <c r="K41">
-        <v>2420</v>
+        <v>4116</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>20405</v>
+        <v>17323.3</v>
       </c>
       <c r="O41">
-        <v>60530</v>
+        <v>49791.8</v>
       </c>
       <c r="P41">
-        <v>28741</v>
+        <v>18147.900000000001</v>
       </c>
       <c r="Q41">
-        <v>-3746</v>
+        <v>1208</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>29270</v>
+        <v>58048.3</v>
       </c>
       <c r="U41">
-        <v>7356</v>
+        <v>9874.4</v>
       </c>
       <c r="V41">
-        <v>2173</v>
+        <v>2592</v>
       </c>
       <c r="W41">
-        <v>-1545</v>
+        <v>-1181</v>
       </c>
       <c r="X41">
-        <v>-3851</v>
+        <v>-1625</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="AA41">
-        <v>2941</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-532</v>
+      </c>
+      <c r="D42">
+        <v>12094</v>
+      </c>
+      <c r="E42">
+        <v>7344</v>
+      </c>
+      <c r="F42">
+        <v>9758</v>
+      </c>
+      <c r="G42">
+        <v>29064</v>
+      </c>
+      <c r="H42">
+        <v>105781</v>
+      </c>
+      <c r="I42">
+        <v>2308</v>
+      </c>
+      <c r="J42">
+        <v>15489</v>
+      </c>
+      <c r="K42">
+        <v>2400</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>15641</v>
+      </c>
+      <c r="O42">
+        <v>48976</v>
+      </c>
+      <c r="P42">
+        <v>17889</v>
+      </c>
+      <c r="Q42">
+        <v>1026</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>94000</v>
+      </c>
+      <c r="T42">
+        <v>56805</v>
+      </c>
+      <c r="U42">
+        <v>10900</v>
+      </c>
+      <c r="V42">
+        <v>3539</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-1295</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>111</v>
+      </c>
+      <c r="AA42">
+        <v>-532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1043</v>
+      </c>
+      <c r="D43">
+        <v>11580</v>
+      </c>
+      <c r="E43">
+        <v>7955</v>
+      </c>
+      <c r="F43">
+        <v>7593</v>
+      </c>
+      <c r="G43">
+        <v>31024</v>
+      </c>
+      <c r="H43">
+        <v>105865</v>
+      </c>
+      <c r="I43">
+        <v>2402</v>
+      </c>
+      <c r="J43">
+        <v>15654</v>
+      </c>
+      <c r="K43">
+        <v>2202</v>
+      </c>
+      <c r="L43">
+        <v>-197</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>15662</v>
+      </c>
+      <c r="O43">
+        <v>49026</v>
+      </c>
+      <c r="P43">
+        <v>17856</v>
+      </c>
+      <c r="Q43">
+        <v>795</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>56839</v>
+      </c>
+      <c r="U43">
+        <v>11695</v>
+      </c>
+      <c r="V43">
+        <v>1721</v>
+      </c>
+      <c r="W43">
+        <v>-1175</v>
+      </c>
+      <c r="X43">
+        <v>-1172</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>142</v>
+      </c>
+      <c r="AA43">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>2024</v>
+      </c>
+      <c r="D44">
+        <v>12151</v>
+      </c>
+      <c r="E44">
+        <v>8475</v>
+      </c>
+      <c r="F44">
+        <v>8094</v>
+      </c>
+      <c r="G44">
+        <v>32368</v>
+      </c>
+      <c r="H44">
+        <v>106195</v>
+      </c>
+      <c r="I44">
+        <v>2143</v>
+      </c>
+      <c r="J44">
+        <v>15783</v>
+      </c>
+      <c r="K44">
+        <v>2523</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>15763</v>
+      </c>
+      <c r="O44">
+        <v>48273</v>
+      </c>
+      <c r="P44">
+        <v>18306</v>
+      </c>
+      <c r="Q44">
+        <v>647</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>57922</v>
+      </c>
+      <c r="U44">
+        <v>12342</v>
+      </c>
+      <c r="V44">
+        <v>2852</v>
+      </c>
+      <c r="W44">
+        <v>-1176</v>
+      </c>
+      <c r="X44">
+        <v>-1257</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-318</v>
+      </c>
+      <c r="AA44">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1693</v>
+      </c>
+      <c r="D45">
+        <v>12022</v>
+      </c>
+      <c r="E45">
+        <v>8136</v>
+      </c>
+      <c r="F45">
+        <v>7769</v>
+      </c>
+      <c r="G45">
+        <v>34109</v>
+      </c>
+      <c r="H45">
+        <v>106534</v>
+      </c>
+      <c r="I45">
+        <v>2282</v>
+      </c>
+      <c r="J45">
+        <v>15692</v>
+      </c>
+      <c r="K45">
+        <v>2455</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>16593</v>
+      </c>
+      <c r="O45">
+        <v>48938</v>
+      </c>
+      <c r="P45">
+        <v>18147</v>
+      </c>
+      <c r="Q45">
+        <v>1911</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>57596</v>
+      </c>
+      <c r="U45">
+        <v>14253</v>
+      </c>
+      <c r="V45">
+        <v>4577</v>
+      </c>
+      <c r="W45">
+        <v>-1175</v>
+      </c>
+      <c r="X45">
+        <v>-2244</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>230</v>
+      </c>
+      <c r="AA45">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1512</v>
+      </c>
+      <c r="D46">
+        <v>12294</v>
+      </c>
+      <c r="E46">
+        <v>8261</v>
+      </c>
+      <c r="F46">
+        <v>8275</v>
+      </c>
+      <c r="G46">
+        <v>33181</v>
+      </c>
+      <c r="H46">
+        <v>105128</v>
+      </c>
+      <c r="I46">
+        <v>2023</v>
+      </c>
+      <c r="J46">
+        <v>15525</v>
+      </c>
+      <c r="K46">
+        <v>1990</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>16245</v>
+      </c>
+      <c r="O46">
+        <v>48185</v>
+      </c>
+      <c r="P46">
+        <v>17515</v>
+      </c>
+      <c r="Q46">
+        <v>-722</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>86000</v>
+      </c>
+      <c r="T46">
+        <v>56943</v>
+      </c>
+      <c r="U46">
+        <v>13531</v>
+      </c>
+      <c r="V46">
+        <v>3233</v>
+      </c>
+      <c r="W46">
+        <v>-1165</v>
+      </c>
+      <c r="X46">
+        <v>-2231</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-1055</v>
+      </c>
+      <c r="AA46">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1738</v>
+      </c>
+      <c r="D47">
+        <v>11731</v>
+      </c>
+      <c r="E47">
+        <v>8726</v>
+      </c>
+      <c r="F47">
+        <v>7699</v>
+      </c>
+      <c r="G47">
+        <v>34344</v>
+      </c>
+      <c r="H47">
+        <v>105509</v>
+      </c>
+      <c r="I47">
+        <v>2358</v>
+      </c>
+      <c r="J47">
+        <v>15228</v>
+      </c>
+      <c r="K47">
+        <v>2930</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2</v>
+      </c>
+      <c r="N47">
+        <v>16582</v>
+      </c>
+      <c r="O47">
+        <v>48195</v>
+      </c>
+      <c r="P47">
+        <v>18158</v>
+      </c>
+      <c r="Q47">
+        <v>1125</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>57314</v>
+      </c>
+      <c r="U47">
+        <v>14656</v>
+      </c>
+      <c r="V47">
+        <v>2154</v>
+      </c>
+      <c r="W47">
+        <v>-1279</v>
+      </c>
+      <c r="X47">
+        <v>-725</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>72</v>
+      </c>
+      <c r="AA47">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1793</v>
+      </c>
+      <c r="D48">
+        <v>12311</v>
+      </c>
+      <c r="E48">
+        <v>8152</v>
+      </c>
+      <c r="F48">
+        <v>8282</v>
+      </c>
+      <c r="G48">
+        <v>35639</v>
+      </c>
+      <c r="H48">
+        <v>105525</v>
+      </c>
+      <c r="I48">
+        <v>1674</v>
+      </c>
+      <c r="J48">
+        <v>15057</v>
+      </c>
+      <c r="K48">
+        <v>3922</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>16912</v>
+      </c>
+      <c r="O48">
+        <v>47852</v>
+      </c>
+      <c r="P48">
+        <v>18979</v>
+      </c>
+      <c r="Q48">
+        <v>2096</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>57673</v>
+      </c>
+      <c r="U48">
+        <v>16752</v>
+      </c>
+      <c r="V48">
+        <v>2920</v>
+      </c>
+      <c r="W48">
+        <v>-1280</v>
+      </c>
+      <c r="X48">
+        <v>-586</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>101</v>
+      </c>
+      <c r="AA48">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1730</v>
+      </c>
+      <c r="D49">
+        <v>11488</v>
+      </c>
+      <c r="E49">
+        <v>7952</v>
+      </c>
+      <c r="F49">
+        <v>7411</v>
+      </c>
+      <c r="G49">
+        <v>36229</v>
+      </c>
+      <c r="H49">
+        <v>106301</v>
+      </c>
+      <c r="I49">
+        <v>1804</v>
+      </c>
+      <c r="J49">
+        <v>17571</v>
+      </c>
+      <c r="K49">
+        <v>2029</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>15583</v>
+      </c>
+      <c r="O49">
+        <v>48089</v>
+      </c>
+      <c r="P49">
+        <v>19600</v>
+      </c>
+      <c r="Q49">
+        <v>608</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>58212</v>
+      </c>
+      <c r="U49">
+        <v>17360</v>
+      </c>
+      <c r="V49">
+        <v>3139</v>
+      </c>
+      <c r="W49">
+        <v>-1277</v>
+      </c>
+      <c r="X49">
+        <v>-738</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-1457</v>
+      </c>
+      <c r="AA49">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>907</v>
+      </c>
+      <c r="D50">
+        <v>11737</v>
+      </c>
+      <c r="E50">
+        <v>7672</v>
+      </c>
+      <c r="F50">
+        <v>7617</v>
+      </c>
+      <c r="G50">
+        <v>34857</v>
+      </c>
+      <c r="H50">
+        <v>106132</v>
+      </c>
+      <c r="I50">
+        <v>1753</v>
+      </c>
+      <c r="J50">
+        <v>16254</v>
+      </c>
+      <c r="K50">
+        <v>2515</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>18348</v>
+      </c>
+      <c r="O50">
+        <v>50669</v>
+      </c>
+      <c r="P50">
+        <v>20569</v>
+      </c>
+      <c r="Q50">
+        <v>-3909</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>83000</v>
+      </c>
+      <c r="T50">
+        <v>55463</v>
+      </c>
+      <c r="U50">
+        <v>13451</v>
+      </c>
+      <c r="V50">
+        <v>1809</v>
+      </c>
+      <c r="W50">
+        <v>-1280</v>
+      </c>
+      <c r="X50">
+        <v>-1218</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-3774</v>
+      </c>
+      <c r="AA50">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1593</v>
+      </c>
+      <c r="D51">
+        <v>10671</v>
+      </c>
+      <c r="E51">
+        <v>7965</v>
+      </c>
+      <c r="F51">
+        <v>6755</v>
+      </c>
+      <c r="G51">
+        <v>35244</v>
+      </c>
+      <c r="H51">
+        <v>106200</v>
+      </c>
+      <c r="I51">
+        <v>2084</v>
+      </c>
+      <c r="J51">
+        <v>16089</v>
+      </c>
+      <c r="K51">
+        <v>4736</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-506</v>
+      </c>
+      <c r="N51">
+        <v>18802</v>
+      </c>
+      <c r="O51">
+        <v>50594</v>
+      </c>
+      <c r="P51">
+        <v>20825</v>
+      </c>
+      <c r="Q51">
+        <v>-427</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>55606</v>
+      </c>
+      <c r="U51">
+        <v>13024</v>
+      </c>
+      <c r="V51">
+        <v>2341</v>
+      </c>
+      <c r="W51">
+        <v>-1306</v>
+      </c>
+      <c r="X51">
+        <v>-1421</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-849</v>
+      </c>
+      <c r="AA51">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>906</v>
+      </c>
+      <c r="D52">
+        <v>11010</v>
+      </c>
+      <c r="E52">
+        <v>7779</v>
+      </c>
+      <c r="F52">
+        <v>7149</v>
+      </c>
+      <c r="G52">
+        <v>36995</v>
+      </c>
+      <c r="H52">
+        <v>106876</v>
+      </c>
+      <c r="I52">
+        <v>2253</v>
+      </c>
+      <c r="J52">
+        <v>22559</v>
+      </c>
+      <c r="K52">
+        <v>5582</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>18402</v>
+      </c>
+      <c r="O52">
+        <v>56771</v>
+      </c>
+      <c r="P52">
+        <v>28141</v>
+      </c>
+      <c r="Q52">
+        <v>2066</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>50105</v>
+      </c>
+      <c r="U52">
+        <v>15090</v>
+      </c>
+      <c r="V52">
+        <v>2338</v>
+      </c>
+      <c r="W52">
+        <v>-1332</v>
+      </c>
+      <c r="X52">
+        <v>970</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-774</v>
+      </c>
+      <c r="AA52">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1124</v>
+      </c>
+      <c r="D53">
+        <v>11032</v>
+      </c>
+      <c r="E53">
+        <v>7578</v>
+      </c>
+      <c r="F53">
+        <v>7026</v>
+      </c>
+      <c r="G53">
+        <v>37765</v>
+      </c>
+      <c r="H53">
+        <v>106419</v>
+      </c>
+      <c r="I53">
+        <v>2469</v>
+      </c>
+      <c r="J53">
+        <v>22669</v>
+      </c>
+      <c r="K53">
+        <v>3976</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>18215</v>
+      </c>
+      <c r="O53">
+        <v>56413</v>
+      </c>
+      <c r="P53">
+        <v>26645</v>
+      </c>
+      <c r="Q53">
+        <v>-1000</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>50006</v>
+      </c>
+      <c r="U53">
+        <v>14090</v>
+      </c>
+      <c r="V53">
+        <v>3949</v>
+      </c>
+      <c r="W53">
+        <v>-1259</v>
+      </c>
+      <c r="X53">
+        <v>-2915</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1631</v>
+      </c>
+      <c r="AA53">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>781</v>
+      </c>
+      <c r="D54">
+        <v>11320</v>
+      </c>
+      <c r="E54">
+        <v>7461</v>
+      </c>
+      <c r="F54">
+        <v>7122</v>
+      </c>
+      <c r="G54">
+        <v>35685</v>
+      </c>
+      <c r="H54">
+        <v>105645</v>
+      </c>
+      <c r="I54">
+        <v>2274</v>
+      </c>
+      <c r="J54">
+        <v>20564</v>
+      </c>
+      <c r="K54">
+        <v>2421</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>17868</v>
+      </c>
+      <c r="O54">
+        <v>53319</v>
+      </c>
+      <c r="P54">
+        <v>25085</v>
+      </c>
+      <c r="Q54">
+        <v>1531</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>77300</v>
+      </c>
+      <c r="T54">
+        <v>52326</v>
+      </c>
+      <c r="U54">
+        <v>15621</v>
+      </c>
+      <c r="V54">
+        <v>3026</v>
+      </c>
+      <c r="W54">
+        <v>-1260</v>
+      </c>
+      <c r="X54">
+        <v>-2624</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1561</v>
+      </c>
+      <c r="AA54">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1705</v>
+      </c>
+      <c r="D55">
+        <v>10264</v>
+      </c>
+      <c r="E55">
+        <v>7188</v>
+      </c>
+      <c r="F55">
+        <v>6480</v>
+      </c>
+      <c r="G55">
+        <v>41240</v>
+      </c>
+      <c r="H55">
+        <v>108460</v>
+      </c>
+      <c r="I55">
+        <v>2434</v>
+      </c>
+      <c r="J55">
+        <v>19611</v>
+      </c>
+      <c r="K55">
+        <v>8559</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-3</v>
+      </c>
+      <c r="N55">
+        <v>22470</v>
+      </c>
+      <c r="O55">
+        <v>55896</v>
+      </c>
+      <c r="P55">
+        <v>28170</v>
+      </c>
+      <c r="Q55">
+        <v>207</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>52564</v>
+      </c>
+      <c r="U55">
+        <v>15828</v>
+      </c>
+      <c r="V55">
+        <v>2361</v>
+      </c>
+      <c r="W55">
+        <v>-1290</v>
+      </c>
+      <c r="X55">
+        <v>1620</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-4193</v>
+      </c>
+      <c r="AA55">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>2004</v>
+      </c>
+      <c r="D56">
+        <v>10934</v>
+      </c>
+      <c r="E56">
+        <v>7022</v>
+      </c>
+      <c r="F56">
+        <v>6872</v>
+      </c>
+      <c r="G56">
+        <v>33587</v>
+      </c>
+      <c r="H56">
+        <v>97860</v>
+      </c>
+      <c r="I56">
+        <v>2326</v>
+      </c>
+      <c r="J56">
+        <v>18604</v>
+      </c>
+      <c r="K56">
+        <v>4477</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>17928</v>
+      </c>
+      <c r="O56">
+        <v>49344</v>
+      </c>
+      <c r="P56">
+        <v>23081</v>
+      </c>
+      <c r="Q56">
+        <v>-6085</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>48516</v>
+      </c>
+      <c r="U56">
+        <v>9743</v>
+      </c>
+      <c r="V56">
+        <v>2315</v>
+      </c>
+      <c r="W56">
+        <v>-1339</v>
+      </c>
+      <c r="X56">
+        <v>-8369</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>334</v>
+      </c>
+      <c r="AA56">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>895</v>
+      </c>
+      <c r="D57">
+        <v>10557</v>
+      </c>
+      <c r="E57">
+        <v>6515</v>
+      </c>
+      <c r="F57">
+        <v>6833</v>
+      </c>
+      <c r="G57">
+        <v>34723</v>
+      </c>
+      <c r="H57">
+        <v>101808</v>
+      </c>
+      <c r="I57">
+        <v>2279</v>
+      </c>
+      <c r="J57">
+        <v>18588</v>
+      </c>
+      <c r="K57">
+        <v>9275</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>25927</v>
+      </c>
+      <c r="O57">
+        <v>56448</v>
+      </c>
+      <c r="P57">
+        <v>27863</v>
+      </c>
+      <c r="Q57">
+        <v>1627</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>45360</v>
+      </c>
+      <c r="U57">
+        <v>11370</v>
+      </c>
+      <c r="V57">
+        <v>4348</v>
+      </c>
+      <c r="W57">
+        <v>-1282</v>
+      </c>
+      <c r="X57">
+        <v>1279</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-146</v>
+      </c>
+      <c r="AA57">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>7316</v>
+      </c>
+      <c r="D58">
+        <v>10482</v>
+      </c>
+      <c r="E58">
+        <v>6671</v>
+      </c>
+      <c r="F58">
+        <v>6838</v>
+      </c>
+      <c r="G58">
+        <v>32605</v>
+      </c>
+      <c r="H58">
+        <v>98167</v>
+      </c>
+      <c r="I58">
+        <v>2625</v>
+      </c>
+      <c r="J58">
+        <v>18714</v>
+      </c>
+      <c r="K58">
+        <v>1704</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>18397</v>
+      </c>
+      <c r="O58">
+        <v>49376</v>
+      </c>
+      <c r="P58">
+        <v>21418</v>
+      </c>
+      <c r="Q58">
+        <v>-3929</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>70000</v>
+      </c>
+      <c r="T58">
+        <v>48791</v>
+      </c>
+      <c r="U58">
+        <v>7441</v>
+      </c>
+      <c r="V58">
+        <v>-1164</v>
+      </c>
+      <c r="W58">
+        <v>-1259</v>
+      </c>
+      <c r="X58">
+        <v>-9643</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-5406</v>
+      </c>
+      <c r="AA58">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>953</v>
+      </c>
+      <c r="D59">
+        <v>9425</v>
+      </c>
+      <c r="E59">
+        <v>6670</v>
+      </c>
+      <c r="F59">
+        <v>5993</v>
+      </c>
+      <c r="G59">
+        <v>32927</v>
+      </c>
+      <c r="H59">
+        <v>108345</v>
+      </c>
+      <c r="I59">
+        <v>2091</v>
+      </c>
+      <c r="J59">
+        <v>25520</v>
+      </c>
+      <c r="K59">
+        <v>4728</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-2902</v>
+      </c>
+      <c r="N59">
+        <v>20442</v>
+      </c>
+      <c r="O59">
+        <v>60428</v>
+      </c>
+      <c r="P59">
+        <v>30248</v>
+      </c>
+      <c r="Q59">
+        <v>539</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>69265</v>
+      </c>
+      <c r="T59">
+        <v>47917</v>
+      </c>
+      <c r="U59">
+        <v>7980</v>
+      </c>
+      <c r="V59">
+        <v>2284</v>
+      </c>
+      <c r="W59">
+        <v>-1280</v>
+      </c>
+      <c r="X59">
+        <v>5155</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>1248</v>
+      </c>
+      <c r="AA59">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>686</v>
+      </c>
+      <c r="D60">
+        <v>9785</v>
+      </c>
+      <c r="E60">
+        <v>6510</v>
+      </c>
+      <c r="F60">
+        <v>6180</v>
+      </c>
+      <c r="G60">
+        <v>28319</v>
+      </c>
+      <c r="H60">
+        <v>102582</v>
+      </c>
+      <c r="I60">
+        <v>2335</v>
+      </c>
+      <c r="J60">
+        <v>24117</v>
+      </c>
+      <c r="K60">
+        <v>2483</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>17508</v>
+      </c>
+      <c r="O60">
+        <v>55944</v>
+      </c>
+      <c r="P60">
+        <v>26600</v>
+      </c>
+      <c r="Q60">
+        <v>-1058</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>68805</v>
+      </c>
+      <c r="T60">
+        <v>46638</v>
+      </c>
+      <c r="U60">
+        <v>6922</v>
+      </c>
+      <c r="V60">
+        <v>2697</v>
+      </c>
+      <c r="W60">
+        <v>-1302</v>
+      </c>
+      <c r="X60">
+        <v>-5597</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>2759</v>
+      </c>
+      <c r="AA60">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1826</v>
+      </c>
+      <c r="D61">
+        <v>10073</v>
+      </c>
+      <c r="E61">
+        <v>6414</v>
+      </c>
+      <c r="F61">
+        <v>6382</v>
+      </c>
+      <c r="G61">
+        <v>28567</v>
+      </c>
+      <c r="H61">
+        <v>101232</v>
+      </c>
+      <c r="I61">
+        <v>2023</v>
+      </c>
+      <c r="J61">
+        <v>24124</v>
+      </c>
+      <c r="K61">
+        <v>2543</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>17583</v>
+      </c>
+      <c r="O61">
+        <v>55553</v>
+      </c>
+      <c r="P61">
+        <v>26667</v>
+      </c>
+      <c r="Q61">
+        <v>626</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>68380</v>
+      </c>
+      <c r="T61">
+        <v>45679</v>
+      </c>
+      <c r="U61">
+        <v>7548</v>
+      </c>
+      <c r="V61">
+        <v>3311</v>
+      </c>
+      <c r="W61">
+        <v>-1272</v>
+      </c>
+      <c r="X61">
+        <v>-2539</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>99</v>
+      </c>
+      <c r="AA61">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>977</v>
+      </c>
+      <c r="D62">
+        <v>10215</v>
+      </c>
+      <c r="E62">
+        <v>6518</v>
+      </c>
+      <c r="F62">
+        <v>6441</v>
+      </c>
+      <c r="G62">
+        <v>29751</v>
+      </c>
+      <c r="H62">
+        <v>101677</v>
+      </c>
+      <c r="I62">
+        <v>2533</v>
+      </c>
+      <c r="J62">
+        <v>23852</v>
+      </c>
+      <c r="K62">
+        <v>283</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>19201</v>
+      </c>
+      <c r="O62">
+        <v>56910</v>
+      </c>
+      <c r="P62">
+        <v>26436</v>
+      </c>
+      <c r="Q62">
+        <v>976</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>68000</v>
+      </c>
+      <c r="T62">
+        <v>44767</v>
+      </c>
+      <c r="U62">
+        <v>8524</v>
+      </c>
+      <c r="V62">
+        <v>4246</v>
+      </c>
+      <c r="W62">
+        <v>-1263</v>
+      </c>
+      <c r="X62">
+        <v>-2406</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-374</v>
+      </c>
+      <c r="AA62">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1125</v>
+      </c>
+      <c r="D63">
+        <v>9312</v>
+      </c>
+      <c r="E63">
+        <v>6850</v>
+      </c>
+      <c r="F63">
+        <v>6039</v>
+      </c>
+      <c r="G63">
+        <v>28772</v>
+      </c>
+      <c r="H63">
+        <v>98755</v>
+      </c>
+      <c r="I63">
+        <v>2241</v>
+      </c>
+      <c r="J63">
+        <v>23656</v>
+      </c>
+      <c r="K63">
+        <v>2113</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-851</v>
+      </c>
+      <c r="N63">
+        <v>17568</v>
+      </c>
+      <c r="O63">
+        <v>54854</v>
+      </c>
+      <c r="P63">
+        <v>25770</v>
+      </c>
+      <c r="Q63">
+        <v>1192</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>67530</v>
+      </c>
+      <c r="T63">
+        <v>43901</v>
+      </c>
+      <c r="U63">
+        <v>9716</v>
+      </c>
+      <c r="V63">
+        <v>2173</v>
+      </c>
+      <c r="W63">
+        <v>-1279</v>
+      </c>
+      <c r="X63">
+        <v>-2866</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>2253</v>
+      </c>
+      <c r="AA63">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1205</v>
+      </c>
+      <c r="D64">
+        <v>9844</v>
+      </c>
+      <c r="E64">
+        <v>6916</v>
+      </c>
+      <c r="F64">
+        <v>6427</v>
+      </c>
+      <c r="G64">
+        <v>27926</v>
+      </c>
+      <c r="H64">
+        <v>96475</v>
+      </c>
+      <c r="I64">
+        <v>2514</v>
+      </c>
+      <c r="J64">
+        <v>23642</v>
+      </c>
+      <c r="K64">
+        <v>644</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14918</v>
+      </c>
+      <c r="O64">
+        <v>53029</v>
+      </c>
+      <c r="P64">
+        <v>24286</v>
+      </c>
+      <c r="Q64">
+        <v>-3108</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>43446</v>
+      </c>
+      <c r="U64">
+        <v>6608</v>
+      </c>
+      <c r="V64">
+        <v>1600</v>
+      </c>
+      <c r="W64">
+        <v>-1300</v>
+      </c>
+      <c r="X64">
+        <v>-3366</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-1220</v>
+      </c>
+      <c r="AA64">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>2185</v>
+      </c>
+      <c r="D65">
+        <v>10536</v>
+      </c>
+      <c r="E65">
+        <v>7364</v>
+      </c>
+      <c r="F65">
+        <v>7163</v>
+      </c>
+      <c r="G65">
+        <v>29440</v>
+      </c>
+      <c r="H65">
+        <v>98335</v>
+      </c>
+      <c r="I65">
+        <v>2481</v>
+      </c>
+      <c r="J65">
+        <v>23657</v>
+      </c>
+      <c r="K65">
+        <v>1487</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>15555</v>
+      </c>
+      <c r="O65">
+        <v>54378</v>
+      </c>
+      <c r="P65">
+        <v>25144</v>
+      </c>
+      <c r="Q65">
+        <v>1299</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>43957</v>
+      </c>
+      <c r="U65">
+        <v>7907</v>
+      </c>
+      <c r="V65">
+        <v>2971</v>
+      </c>
+      <c r="W65">
+        <v>-1274</v>
+      </c>
+      <c r="X65">
+        <v>-835</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>183</v>
+      </c>
+      <c r="AA65">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-595</v>
+      </c>
+      <c r="D66">
+        <v>10115</v>
+      </c>
+      <c r="E66">
+        <v>7018</v>
+      </c>
+      <c r="F66">
+        <v>6815</v>
+      </c>
+      <c r="G66">
+        <v>30614</v>
+      </c>
+      <c r="H66">
+        <v>95377</v>
+      </c>
+      <c r="I66">
+        <v>2807</v>
+      </c>
+      <c r="J66">
+        <v>24303</v>
+      </c>
+      <c r="K66">
+        <v>268</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>17204</v>
+      </c>
+      <c r="O66">
+        <v>55069</v>
+      </c>
+      <c r="P66">
+        <v>24871</v>
+      </c>
+      <c r="Q66">
+        <v>-1392</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>68000</v>
+      </c>
+      <c r="T66">
+        <v>40308</v>
+      </c>
+      <c r="U66">
+        <v>6515</v>
+      </c>
+      <c r="V66">
+        <v>3632</v>
+      </c>
+      <c r="W66">
+        <v>-1271</v>
+      </c>
+      <c r="X66">
+        <v>-1977</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-2514</v>
+      </c>
+      <c r="AA66">
+        <v>-595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1551</v>
+      </c>
+      <c r="D67">
+        <v>9434</v>
+      </c>
+      <c r="E67">
+        <v>7066</v>
+      </c>
+      <c r="F67">
+        <v>6524</v>
+      </c>
+      <c r="G67">
+        <v>31530</v>
+      </c>
+      <c r="H67">
+        <v>96561</v>
+      </c>
+      <c r="I67">
+        <v>2484</v>
+      </c>
+      <c r="J67">
+        <v>23472</v>
+      </c>
+      <c r="K67">
+        <v>5037</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-300</v>
+      </c>
+      <c r="N67">
+        <v>19823</v>
+      </c>
+      <c r="O67">
+        <v>56473</v>
+      </c>
+      <c r="P67">
+        <v>28509</v>
+      </c>
+      <c r="Q67">
+        <v>5193</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>67455</v>
+      </c>
+      <c r="T67">
+        <v>40088</v>
+      </c>
+      <c r="U67">
+        <v>11708</v>
+      </c>
+      <c r="V67">
+        <v>286</v>
+      </c>
+      <c r="W67">
+        <v>-1294</v>
+      </c>
+      <c r="X67">
+        <v>1461</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>3890</v>
+      </c>
+      <c r="AA67">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1945</v>
+      </c>
+      <c r="D68">
+        <v>9930</v>
+      </c>
+      <c r="E68">
+        <v>7439</v>
+      </c>
+      <c r="F68">
+        <v>6894</v>
+      </c>
+      <c r="G68">
+        <v>28167</v>
+      </c>
+      <c r="H68">
+        <v>92804</v>
+      </c>
+      <c r="I68">
+        <v>2934</v>
+      </c>
+      <c r="J68">
+        <v>21725</v>
+      </c>
+      <c r="K68">
+        <v>3181</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>18758</v>
+      </c>
+      <c r="O68">
+        <v>53092</v>
+      </c>
+      <c r="P68">
+        <v>24910</v>
+      </c>
+      <c r="Q68">
+        <v>-3922</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>39712</v>
+      </c>
+      <c r="U68">
+        <v>7786</v>
+      </c>
+      <c r="V68">
+        <v>3317</v>
+      </c>
+      <c r="W68">
+        <v>-1307</v>
+      </c>
+      <c r="X68">
+        <v>-6218</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-807</v>
+      </c>
+      <c r="AA68">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-56</v>
+      </c>
+      <c r="D69">
+        <v>10325</v>
+      </c>
+      <c r="E69">
+        <v>7671</v>
+      </c>
+      <c r="F69">
+        <v>7043</v>
+      </c>
+      <c r="G69">
+        <v>27919</v>
+      </c>
+      <c r="H69">
+        <v>91676</v>
+      </c>
+      <c r="I69">
+        <v>2620</v>
+      </c>
+      <c r="J69">
+        <v>21861</v>
+      </c>
+      <c r="K69">
+        <v>5157</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>19467</v>
+      </c>
+      <c r="O69">
+        <v>53177</v>
+      </c>
+      <c r="P69">
+        <v>27021</v>
+      </c>
+      <c r="Q69">
+        <v>115</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>38499</v>
+      </c>
+      <c r="U69">
+        <v>7901</v>
+      </c>
+      <c r="V69">
+        <v>-1171</v>
+      </c>
+      <c r="W69">
+        <v>-1283</v>
+      </c>
+      <c r="X69">
+        <v>536</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1053</v>
+      </c>
+      <c r="AA69">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-1046</v>
+      </c>
+      <c r="D70">
+        <v>10433</v>
+      </c>
+      <c r="E70">
+        <v>6918</v>
+      </c>
+      <c r="F70">
+        <v>7021</v>
+      </c>
+      <c r="G70">
+        <v>24766</v>
+      </c>
+      <c r="H70">
+        <v>87872</v>
+      </c>
+      <c r="I70">
+        <v>3102</v>
+      </c>
+      <c r="J70">
+        <v>21405</v>
+      </c>
+      <c r="K70">
+        <v>57</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>18614</v>
+      </c>
+      <c r="O70">
+        <v>53303</v>
+      </c>
+      <c r="P70">
+        <v>24465</v>
+      </c>
+      <c r="Q70">
+        <v>-1805</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>69000</v>
+      </c>
+      <c r="T70">
+        <v>34569</v>
+      </c>
+      <c r="U70">
+        <v>6092</v>
+      </c>
+      <c r="V70">
+        <v>4019</v>
+      </c>
+      <c r="W70">
+        <v>-1283</v>
+      </c>
+      <c r="X70">
+        <v>-5785</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>789</v>
+      </c>
+      <c r="AA70">
+        <v>-1046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>736</v>
+      </c>
+      <c r="D71">
+        <v>10037</v>
+      </c>
+      <c r="E71">
+        <v>7245</v>
+      </c>
+      <c r="F71">
+        <v>6859</v>
+      </c>
+      <c r="G71">
+        <v>24085</v>
+      </c>
+      <c r="H71">
+        <v>86041</v>
+      </c>
+      <c r="I71">
+        <v>3162</v>
+      </c>
+      <c r="J71">
+        <v>21615</v>
+      </c>
+      <c r="K71">
+        <v>2055</v>
+      </c>
+      <c r="L71">
+        <v>-1</v>
+      </c>
+      <c r="M71">
+        <v>-1003</v>
+      </c>
+      <c r="N71">
+        <v>16960</v>
+      </c>
+      <c r="O71">
+        <v>52140</v>
+      </c>
+      <c r="P71">
+        <v>23671</v>
+      </c>
+      <c r="Q71">
+        <v>-1610</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>33901</v>
+      </c>
+      <c r="U71">
+        <v>4483</v>
+      </c>
+      <c r="V71">
+        <v>1155</v>
+      </c>
+      <c r="W71">
+        <v>-1299</v>
+      </c>
+      <c r="X71">
+        <v>-2722</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>522</v>
+      </c>
+      <c r="AA71">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1707</v>
+      </c>
+      <c r="D72">
+        <v>10465</v>
+      </c>
+      <c r="E72">
+        <v>7287</v>
+      </c>
+      <c r="F72">
+        <v>7051</v>
+      </c>
+      <c r="G72">
+        <v>24064</v>
+      </c>
+      <c r="H72">
+        <v>85040</v>
+      </c>
+      <c r="I72">
+        <v>3024</v>
+      </c>
+      <c r="J72">
+        <v>20089</v>
+      </c>
+      <c r="K72">
+        <v>3379</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>18128</v>
+      </c>
+      <c r="O72">
+        <v>52274</v>
+      </c>
+      <c r="P72">
+        <v>23470</v>
+      </c>
+      <c r="Q72">
+        <v>826</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>32766</v>
+      </c>
+      <c r="U72">
+        <v>5310</v>
+      </c>
+      <c r="V72">
+        <v>3382</v>
+      </c>
+      <c r="W72">
+        <v>-1311</v>
+      </c>
+      <c r="X72">
+        <v>-2967</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>1633</v>
+      </c>
+      <c r="AA72">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1950</v>
+      </c>
+      <c r="D73">
+        <v>10794</v>
+      </c>
+      <c r="E73">
+        <v>7374</v>
+      </c>
+      <c r="F73">
+        <v>7314</v>
+      </c>
+      <c r="G73">
+        <v>26836</v>
+      </c>
+      <c r="H73">
+        <v>85130</v>
+      </c>
+      <c r="I73">
+        <v>3091</v>
+      </c>
+      <c r="J73">
+        <v>20074</v>
+      </c>
+      <c r="K73">
+        <v>3656</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>18586</v>
+      </c>
+      <c r="O73">
+        <v>52474</v>
+      </c>
+      <c r="P73">
+        <v>23732</v>
+      </c>
+      <c r="Q73">
+        <v>2516</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>32656</v>
+      </c>
+      <c r="U73">
+        <v>7826</v>
+      </c>
+      <c r="V73">
+        <v>2793</v>
+      </c>
+      <c r="W73">
+        <v>-1285</v>
+      </c>
+      <c r="X73">
+        <v>-1905</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>2189</v>
+      </c>
+      <c r="AA73">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1827</v>
+      </c>
+      <c r="D74">
+        <v>10998</v>
+      </c>
+      <c r="E74">
+        <v>7226</v>
+      </c>
+      <c r="F74">
+        <v>7719</v>
+      </c>
+      <c r="G74">
+        <v>25875</v>
+      </c>
+      <c r="H74">
+        <v>82637</v>
+      </c>
+      <c r="I74">
+        <v>4098</v>
+      </c>
+      <c r="J74">
+        <v>19887</v>
+      </c>
+      <c r="K74">
+        <v>5308</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>22206</v>
+      </c>
+      <c r="O74">
+        <v>55755</v>
+      </c>
+      <c r="P74">
+        <v>25195</v>
+      </c>
+      <c r="Q74">
+        <v>139</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>69000</v>
+      </c>
+      <c r="T74">
+        <v>26882</v>
+      </c>
+      <c r="U74">
+        <v>7965</v>
+      </c>
+      <c r="V74">
+        <v>3592</v>
+      </c>
+      <c r="W74">
+        <v>-1277</v>
+      </c>
+      <c r="X74">
+        <v>-5566</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>2914</v>
+      </c>
+      <c r="AA74">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>2915</v>
+      </c>
+      <c r="D75">
+        <v>10816</v>
+      </c>
+      <c r="E75">
+        <v>7796</v>
+      </c>
+      <c r="F75">
+        <v>7798</v>
+      </c>
+      <c r="G75">
+        <v>25351</v>
+      </c>
+      <c r="H75">
+        <v>82354</v>
+      </c>
+      <c r="I75">
+        <v>4159</v>
+      </c>
+      <c r="J75">
+        <v>22757</v>
+      </c>
+      <c r="K75">
+        <v>3175</v>
+      </c>
+      <c r="L75">
+        <v>-4135</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>18543</v>
+      </c>
+      <c r="O75">
+        <v>54684</v>
+      </c>
+      <c r="P75">
+        <v>26969</v>
+      </c>
+      <c r="Q75">
+        <v>110</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>27670</v>
+      </c>
+      <c r="U75">
+        <v>8076</v>
+      </c>
+      <c r="V75">
+        <v>1336</v>
+      </c>
+      <c r="W75">
+        <v>-1428</v>
+      </c>
+      <c r="X75">
+        <v>-1614</v>
+      </c>
+      <c r="Y75">
+        <v>777</v>
+      </c>
+      <c r="Z75">
+        <v>925</v>
+      </c>
+      <c r="AA75">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>2670</v>
+      </c>
+      <c r="D76">
+        <v>11760</v>
+      </c>
+      <c r="E76">
+        <v>8208</v>
+      </c>
+      <c r="F76">
+        <v>8493</v>
+      </c>
+      <c r="G76">
+        <v>24298</v>
+      </c>
+      <c r="H76">
+        <v>83965</v>
+      </c>
+      <c r="I76">
+        <v>4456</v>
+      </c>
+      <c r="J76">
+        <v>22773</v>
+      </c>
+      <c r="K76">
+        <v>3816</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>20085</v>
+      </c>
+      <c r="O76">
+        <v>56228</v>
+      </c>
+      <c r="P76">
+        <v>27588</v>
+      </c>
+      <c r="Q76">
+        <v>-1417</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>27737</v>
+      </c>
+      <c r="U76">
+        <v>6659</v>
+      </c>
+      <c r="V76">
+        <v>3084</v>
+      </c>
+      <c r="W76">
+        <v>-1468</v>
+      </c>
+      <c r="X76">
+        <v>-2084</v>
+      </c>
+      <c r="Y76">
+        <v>752</v>
+      </c>
+      <c r="Z76">
+        <v>2200</v>
+      </c>
+      <c r="AA76">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1902</v>
+      </c>
+      <c r="D77">
+        <v>12397</v>
+      </c>
+      <c r="E77">
+        <v>8714</v>
+      </c>
+      <c r="F77">
+        <v>9081</v>
+      </c>
+      <c r="G77">
+        <v>26142</v>
+      </c>
+      <c r="H77">
+        <v>83331</v>
+      </c>
+      <c r="I77">
+        <v>4468</v>
+      </c>
+      <c r="J77">
+        <v>22677</v>
+      </c>
+      <c r="K77">
+        <v>3411</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>20684</v>
+      </c>
+      <c r="O77">
+        <v>56406</v>
+      </c>
+      <c r="P77">
+        <v>27111</v>
+      </c>
+      <c r="Q77">
+        <v>1211</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>26925</v>
+      </c>
+      <c r="U77">
+        <v>7869</v>
+      </c>
+      <c r="V77">
+        <v>4226</v>
+      </c>
+      <c r="W77">
+        <v>-1394</v>
+      </c>
+      <c r="X77">
+        <v>-3152</v>
+      </c>
+      <c r="Y77">
+        <v>779</v>
+      </c>
+      <c r="Z77">
+        <v>1954</v>
+      </c>
+      <c r="AA77">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>2356</v>
+      </c>
+      <c r="D78">
+        <v>11868</v>
+      </c>
+      <c r="E78">
+        <v>7105</v>
+      </c>
+      <c r="F78">
+        <v>8301</v>
+      </c>
+      <c r="G78">
+        <v>27483</v>
+      </c>
+      <c r="H78">
+        <v>84397</v>
+      </c>
+      <c r="I78">
+        <v>5015</v>
+      </c>
+      <c r="J78">
+        <v>22736</v>
+      </c>
+      <c r="K78">
+        <v>1710</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>22220</v>
+      </c>
+      <c r="O78">
+        <v>58396</v>
+      </c>
+      <c r="P78">
+        <v>27351</v>
+      </c>
+      <c r="Q78">
+        <v>2063</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>71000</v>
+      </c>
+      <c r="T78">
+        <v>26001</v>
+      </c>
+      <c r="U78">
+        <v>9676</v>
+      </c>
+      <c r="V78">
+        <v>4794</v>
+      </c>
+      <c r="W78">
+        <v>-1405</v>
+      </c>
+      <c r="X78">
+        <v>-2011</v>
+      </c>
+      <c r="Y78">
+        <v>768</v>
+      </c>
+      <c r="Z78">
+        <v>341</v>
+      </c>
+      <c r="AA78">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>3219</v>
+      </c>
+      <c r="D79">
+        <v>12057</v>
+      </c>
+      <c r="E79">
+        <v>8514</v>
+      </c>
+      <c r="F79">
+        <v>8813</v>
+      </c>
+      <c r="G79">
+        <v>26174</v>
+      </c>
+      <c r="H79">
+        <v>84913</v>
+      </c>
+      <c r="I79">
+        <v>4323</v>
+      </c>
+      <c r="J79">
+        <v>21637</v>
+      </c>
+      <c r="K79">
+        <v>6361</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1951</v>
+      </c>
+      <c r="N79">
+        <v>23483</v>
+      </c>
+      <c r="O79">
+        <v>58613</v>
+      </c>
+      <c r="P79">
+        <v>27998</v>
+      </c>
+      <c r="Q79">
+        <v>-2474</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>26300</v>
+      </c>
+      <c r="U79">
+        <v>7425</v>
+      </c>
+      <c r="V79">
+        <v>707</v>
+      </c>
+      <c r="W79">
+        <v>-1551</v>
+      </c>
+      <c r="X79">
+        <v>-1490</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1767</v>
+      </c>
+      <c r="AA79">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>3002</v>
+      </c>
+      <c r="D80">
+        <v>10872</v>
+      </c>
+      <c r="E80">
+        <v>7980</v>
+      </c>
+      <c r="F80">
+        <v>7738</v>
+      </c>
+      <c r="G80">
+        <v>29343</v>
+      </c>
+      <c r="H80">
+        <v>90615</v>
+      </c>
+      <c r="I80">
+        <v>4097</v>
+      </c>
+      <c r="J80">
+        <v>26156</v>
+      </c>
+      <c r="K80">
+        <v>4718</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>22178</v>
+      </c>
+      <c r="O80">
+        <v>62871</v>
+      </c>
+      <c r="P80">
+        <v>30874</v>
+      </c>
+      <c r="Q80">
+        <v>3687</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>27744</v>
+      </c>
+      <c r="U80">
+        <v>11103</v>
+      </c>
+      <c r="V80">
+        <v>3367</v>
+      </c>
+      <c r="W80">
+        <v>-1577</v>
+      </c>
+      <c r="X80">
+        <v>1137</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>48</v>
+      </c>
+      <c r="AA80">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>2940</v>
+      </c>
+      <c r="D81">
+        <v>12551</v>
+      </c>
+      <c r="E81">
+        <v>8859</v>
+      </c>
+      <c r="F81">
+        <v>9108</v>
+      </c>
+      <c r="G81">
+        <v>26577</v>
+      </c>
+      <c r="H81">
+        <v>89800</v>
+      </c>
+      <c r="I81">
+        <v>4378</v>
+      </c>
+      <c r="J81">
+        <v>26321</v>
+      </c>
+      <c r="K81">
+        <v>2420</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>20405</v>
+      </c>
+      <c r="O81">
+        <v>60530</v>
+      </c>
+      <c r="P81">
+        <v>28741</v>
+      </c>
+      <c r="Q81">
+        <v>-3746</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>29270</v>
+      </c>
+      <c r="U81">
+        <v>7356</v>
+      </c>
+      <c r="V81">
+        <v>2173</v>
+      </c>
+      <c r="W81">
+        <v>-1545</v>
+      </c>
+      <c r="X81">
+        <v>-3851</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-2094</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>12515</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>8288</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>8914</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>27764</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>91588</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>5352</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>25360</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>4131</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>27327</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>66184</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>33453</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>764</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>73000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>25404</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>8062</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>4006</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-1542</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>1372</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1362</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-99</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-2094</v>
       </c>
     </row>
